--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4DB1A-6332-4F4A-A89D-B99EFB8D6CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E404DF03-85E7-044D-A1F8-F2A0DBD09B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="259">
   <si>
     <t>Database</t>
   </si>
@@ -777,14 +777,109 @@
   <si>
     <t>8561a2eecd6e4f8a9bfd165b2a7332e0</t>
   </si>
+  <si>
+    <t>production amount</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market for battery, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>battery, SiB</t>
+  </si>
+  <si>
+    <t>battery module production, for LiS battery</t>
+  </si>
+  <si>
+    <t>aluminium busbar production, for LiS battery</t>
+  </si>
+  <si>
+    <t>aluminium busbar</t>
+  </si>
+  <si>
+    <t>bimetallic busbar production, for LiS battery</t>
+  </si>
+  <si>
+    <t>bimetallic busbar</t>
+  </si>
+  <si>
+    <t>copper busbar production, for LiS battery</t>
+  </si>
+  <si>
+    <t>copper busbar</t>
+  </si>
+  <si>
+    <t>market for polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>market for steel, low-alloyed</t>
+  </si>
+  <si>
+    <t>market for injection moulding</t>
+  </si>
+  <si>
+    <t>injection moulding</t>
+  </si>
+  <si>
+    <t>market for metal working, average for steel product manufacturing</t>
+  </si>
+  <si>
+    <t>metal working, average for steel product manufacturing</t>
+  </si>
+  <si>
+    <t>battery module production, for SiB battery</t>
+  </si>
+  <si>
+    <t>Taken from Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. Based on Ainsworth (2016), Peters and Weil (2017), Ellingsen et al. (2014) and adapted to SiB battery cells.</t>
+  </si>
+  <si>
+    <t>battery, SiB module</t>
+  </si>
+  <si>
+    <t>Originally from  Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. Based on Ainsworth (2016), Peters and Weil (2017), Ellingsen et al. (2014), but adapted to SiB batterx cells since the publication does not give information on packing.</t>
+  </si>
+  <si>
+    <t>One kilogram 21700 NMMT-hard carbon battery cell inside battery pack, with a unit weight of 56.2g, a voltage of 3.2 V, a speciifc energy of 157 Wh/kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh). Source: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -801,6 +896,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -827,9 +930,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K478"/>
+  <dimension ref="A1:K514"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8745,6 +8857,506 @@
         <v>219</v>
       </c>
     </row>
+    <row r="480" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>232</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>6</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>218</v>
+      </c>
+      <c r="B486" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>9</v>
+      </c>
+      <c r="B488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" t="s">
+        <v>12</v>
+      </c>
+      <c r="E488" t="s">
+        <v>3</v>
+      </c>
+      <c r="F488" t="s">
+        <v>13</v>
+      </c>
+      <c r="G488" t="s">
+        <v>5</v>
+      </c>
+      <c r="H488" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>240</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489" t="s">
+        <v>7</v>
+      </c>
+      <c r="E489" t="s">
+        <v>21</v>
+      </c>
+      <c r="F489" t="s">
+        <v>18</v>
+      </c>
+      <c r="G489" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>205</v>
+      </c>
+      <c r="B490" s="4">
+        <f>408*0.046/24.971</f>
+        <v>0.75159184654198874</v>
+      </c>
+      <c r="C490" t="s">
+        <v>7</v>
+      </c>
+      <c r="E490" t="s">
+        <v>4</v>
+      </c>
+      <c r="F490" t="s">
+        <v>19</v>
+      </c>
+      <c r="G490" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>241</v>
+      </c>
+      <c r="B491" s="4">
+        <f>0.275/24.971</f>
+        <v>1.1012774818789798E-2</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" t="s">
+        <v>21</v>
+      </c>
+      <c r="F491" t="s">
+        <v>19</v>
+      </c>
+      <c r="G491" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>243</v>
+      </c>
+      <c r="B492" s="4">
+        <f>0.593/24.971</f>
+        <v>2.3747547154699448E-2</v>
+      </c>
+      <c r="C492" t="s">
+        <v>7</v>
+      </c>
+      <c r="E492" t="s">
+        <v>21</v>
+      </c>
+      <c r="F492" t="s">
+        <v>19</v>
+      </c>
+      <c r="G492" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B493" s="5">
+        <f>0.085/24.971</f>
+        <v>3.4039485803532099E-3</v>
+      </c>
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" t="s">
+        <v>21</v>
+      </c>
+      <c r="F493" t="s">
+        <v>19</v>
+      </c>
+      <c r="G493" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>247</v>
+      </c>
+      <c r="B494" s="6">
+        <f>2.75/24.971</f>
+        <v>0.11012774818789796</v>
+      </c>
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+      <c r="E494" t="s">
+        <v>21</v>
+      </c>
+      <c r="F494" t="s">
+        <v>19</v>
+      </c>
+      <c r="G494" t="s">
+        <v>248</v>
+      </c>
+      <c r="I494" s="7"/>
+      <c r="J494" s="8"/>
+      <c r="K494" s="8"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>249</v>
+      </c>
+      <c r="B495" s="6">
+        <f>2.5/24.971</f>
+        <v>0.10011613471627087</v>
+      </c>
+      <c r="C495" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" t="s">
+        <v>21</v>
+      </c>
+      <c r="F495" t="s">
+        <v>19</v>
+      </c>
+      <c r="G495" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>250</v>
+      </c>
+      <c r="B496" s="6">
+        <f>2.75/24.971</f>
+        <v>0.11012774818789796</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" t="s">
+        <v>21</v>
+      </c>
+      <c r="F496" t="s">
+        <v>19</v>
+      </c>
+      <c r="G496" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>252</v>
+      </c>
+      <c r="B497" s="9">
+        <f>2.5/24.971</f>
+        <v>0.10011613471627087</v>
+      </c>
+      <c r="C497" t="s">
+        <v>7</v>
+      </c>
+      <c r="E497" t="s">
+        <v>21</v>
+      </c>
+      <c r="F497" t="s">
+        <v>19</v>
+      </c>
+      <c r="G497" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B498" s="10"/>
+    </row>
+    <row r="499" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>2</v>
+      </c>
+      <c r="B500" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>3</v>
+      </c>
+      <c r="B501" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>232</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>6</v>
+      </c>
+      <c r="B504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>218</v>
+      </c>
+      <c r="B505" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A508" s="3" t="str">
+        <f>B499</f>
+        <v>market for battery, Sodium-ion, SiB</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508" t="s">
+        <v>7</v>
+      </c>
+      <c r="E508" t="str">
+        <f>B501</f>
+        <v>GLO</v>
+      </c>
+      <c r="F508" t="s">
+        <v>18</v>
+      </c>
+      <c r="G508" t="str">
+        <f>B503</f>
+        <v>battery, SiB</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A509" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509" t="s">
+        <v>7</v>
+      </c>
+      <c r="E509" t="s">
+        <v>21</v>
+      </c>
+      <c r="F509" t="s">
+        <v>19</v>
+      </c>
+      <c r="G509" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>27</v>
+      </c>
+      <c r="B510">
+        <v>0.30910727700000001</v>
+      </c>
+      <c r="C510" t="s">
+        <v>24</v>
+      </c>
+      <c r="E510" t="s">
+        <v>21</v>
+      </c>
+      <c r="F510" t="s">
+        <v>19</v>
+      </c>
+      <c r="G510" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>233</v>
+      </c>
+      <c r="B511">
+        <v>2.4627409999999999E-2</v>
+      </c>
+      <c r="C511" t="s">
+        <v>24</v>
+      </c>
+      <c r="E511" t="s">
+        <v>21</v>
+      </c>
+      <c r="F511" t="s">
+        <v>19</v>
+      </c>
+      <c r="G511" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>235</v>
+      </c>
+      <c r="B512">
+        <v>0.20877976500000001</v>
+      </c>
+      <c r="C512" t="s">
+        <v>24</v>
+      </c>
+      <c r="E512" t="s">
+        <v>21</v>
+      </c>
+      <c r="F512" t="s">
+        <v>19</v>
+      </c>
+      <c r="G512" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>236</v>
+      </c>
+      <c r="B513">
+        <v>0.59901584900000004</v>
+      </c>
+      <c r="C513" t="s">
+        <v>24</v>
+      </c>
+      <c r="E513" t="s">
+        <v>21</v>
+      </c>
+      <c r="F513" t="s">
+        <v>19</v>
+      </c>
+      <c r="G513" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K478" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E404DF03-85E7-044D-A1F8-F2A0DBD09B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E639F8-9397-A746-B031-8B6FD43B763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1740" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sodium-ion batteries" sheetId="2" r:id="rId1"/>
@@ -856,7 +856,7 @@
     <t>Originally from  Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. Based on Ainsworth (2016), Peters and Weil (2017), Ellingsen et al. (2014), but adapted to SiB batterx cells since the publication does not give information on packing.</t>
   </si>
   <si>
-    <t>One kilogram 21700 NMMT-hard carbon battery cell inside battery pack, with a unit weight of 56.2g, a voltage of 3.2 V, a speciifc energy of 157 Wh/kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh). Source: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
+    <t>One kilogram 21700 NMMT-hard carbon battery cell inside battery pack, with a unit weight of 56.2g, a voltage of 3.2 V, a speciifc energy of 157 Wh/kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh), 4'000 cycles. Source: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B499" sqref="B499"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E639F8-9397-A746-B031-8B6FD43B763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14568C-C254-A746-BFBC-7E9182BF391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1740" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sodium-ion batteries" sheetId="2" r:id="rId1"/>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>Sulfur oxides</t>
-  </si>
-  <si>
-    <t>air separation, cryogenic</t>
   </si>
   <si>
     <t>nitrogen, liquid</t>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>One kilogram 21700 NMMT-hard carbon battery cell inside battery pack, with a unit weight of 56.2g, a voltage of 3.2 V, a speciifc energy of 157 Wh/kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh), 4'000 cycles. Source: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1268,15 +1268,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1308,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1329,10 +1329,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1365,13 +1365,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1383,18 +1383,18 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14">
         <v>1.2140184349262255</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1406,18 +1406,18 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15">
         <v>1.2140184349262255</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1429,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1463,7 +1463,7 @@
         <v>9.7900000000000001E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1486,7 +1486,7 @@
         <v>0.58740000000000003</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1532,7 +1532,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1555,7 +1555,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1612,10 +1612,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31">
         <v>3.7399999999999999E-7</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32">
         <v>9.3699999999999999E-3</v>
@@ -1693,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33">
         <v>1.5999999999999999E-5</v>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>-8</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
         <v>56</v>
@@ -1773,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
@@ -1796,7 +1796,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38">
         <v>-4.7199999999999998E-4</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
@@ -1831,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1847,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1884,10 +1884,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1920,13 +1920,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
         <v>0.7</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -1972,7 +1972,7 @@
         <v>0.3</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2016,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2037,10 +2037,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2096,13 +2096,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -2114,18 +2114,18 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B64">
         <v>2.2000000000000002</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -2148,7 +2148,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -2171,7 +2171,7 @@
         <v>0.48</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -2194,7 +2194,7 @@
         <v>0.13</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -2217,7 +2217,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
         <v>21</v>
@@ -2240,7 +2240,7 @@
         <v>-2E-3</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
         <v>56</v>
@@ -2263,7 +2263,7 @@
         <v>0.15</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
         <v>60</v>
@@ -2286,7 +2286,7 @@
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2351,10 +2351,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2387,13 +2387,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -2405,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2416,7 +2416,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2439,7 +2439,7 @@
         <v>-1.6E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" t="s">
         <v>56</v>
@@ -2462,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
         <v>56</v>
@@ -2485,7 +2485,7 @@
         <v>0.42</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2508,7 +2508,7 @@
         <v>1E-3</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2552,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2573,10 +2573,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -2712,13 +2712,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -2730,18 +2730,18 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B105">
         <v>0.23881589999999997</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -2753,18 +2753,18 @@
         <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B106">
         <v>0.1</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -2776,18 +2776,18 @@
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -2799,18 +2799,18 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
         <v>56</v>
@@ -2822,7 +2822,7 @@
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -2833,7 +2833,7 @@
         <v>0.05</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>0.11500000000000002</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -2879,7 +2879,7 @@
         <v>-0.40563110000000002</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D111" t="s">
         <v>56</v>
@@ -2902,7 +2902,7 @@
         <v>1.3465642857142857E-2</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113">
         <v>0.10919075604395607</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -2937,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -2948,7 +2948,7 @@
         <v>0.69000000000000017</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -2992,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3013,10 +3013,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3072,13 +3072,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126">
         <v>16.562049113719404</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -3090,18 +3090,18 @@
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127">
         <v>0.70764782673161575</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -3113,18 +3113,18 @@
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B128">
         <v>13.02072001186173</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -3136,7 +3136,7 @@
         <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
         <v>2.4090925790870865</v>
       </c>
       <c r="C129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D129" t="s">
         <v>21</v>
@@ -3159,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3170,7 +3170,7 @@
         <v>0.42458869603896943</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -3182,7 +3182,7 @@
         <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -3193,7 +3193,7 @@
         <v>1.6562049113719401</v>
       </c>
       <c r="C131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3216,7 +3216,7 @@
         <v>53.653742394210752</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>9.9372294682316404</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3304,10 +3304,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3383,13 +3383,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -3401,18 +3401,18 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147">
         <v>2.75E-2</v>
       </c>
       <c r="C147" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -3424,18 +3424,18 @@
         <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B148">
         <v>0.33600000000000002</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -3447,18 +3447,18 @@
         <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B149">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D149" t="s">
         <v>21</v>
@@ -3470,18 +3470,18 @@
         <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B150">
         <v>0.41</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
         <v>21</v>
@@ -3493,18 +3493,18 @@
         <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B151">
         <v>0.55000000000000004</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D151" t="s">
         <v>21</v>
@@ -3516,18 +3516,18 @@
         <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B152">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -3539,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -3550,7 +3550,7 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -3573,7 +3573,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -3590,13 +3590,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B155">
         <v>10.6</v>
       </c>
       <c r="C155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -3608,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="C156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -3684,10 +3684,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -3743,13 +3743,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B168">
         <v>20.9977698868578</v>
       </c>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -3761,18 +3761,18 @@
         <v>18</v>
       </c>
       <c r="H168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B169">
         <v>0.37177354615541464</v>
       </c>
       <c r="C169" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -3784,18 +3784,18 @@
         <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>17.8451302154599</v>
       </c>
       <c r="C170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -3807,7 +3807,7 @@
         <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -3818,7 +3818,7 @@
         <v>0.37177354615541464</v>
       </c>
       <c r="C171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171" t="s">
         <v>21</v>
@@ -3830,7 +3830,7 @@
         <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>2.9920334994587763</v>
       </c>
       <c r="C172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -3864,7 +3864,7 @@
         <v>94.214714007563359</v>
       </c>
       <c r="C173" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -3887,7 +3887,7 @@
         <v>70.469523542993926</v>
       </c>
       <c r="C174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -3910,7 +3910,7 @@
         <v>17.952200996752659</v>
       </c>
       <c r="C175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -3954,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -3975,10 +3975,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -4034,13 +4034,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B187">
         <v>13.018168247328598</v>
       </c>
       <c r="C187" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -4052,18 +4052,18 @@
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B188">
         <v>0.55460691116478344</v>
       </c>
       <c r="C188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -4075,18 +4075,18 @@
         <v>19</v>
       </c>
       <c r="H188" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B189">
         <v>10.204767165432015</v>
       </c>
       <c r="C189" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -4098,7 +4098,7 @@
         <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -4109,7 +4109,7 @@
         <v>1.9260300240329271</v>
       </c>
       <c r="C190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D190" t="s">
         <v>21</v>
@@ -4121,7 +4121,7 @@
         <v>19</v>
       </c>
       <c r="H190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
         <v>0.33276414669887006</v>
       </c>
       <c r="C191" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D191" t="s">
         <v>21</v>
@@ -4144,7 +4144,7 @@
         <v>19</v>
       </c>
       <c r="H191" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
         <v>1.3018168247328599</v>
       </c>
       <c r="C192" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -4178,7 +4178,7 @@
         <v>42.050205225840159</v>
       </c>
       <c r="C193" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -4201,7 +4201,7 @@
         <v>7.8109009483971592</v>
       </c>
       <c r="C194" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -4229,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -4245,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -4258,10 +4258,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B205">
         <v>-7.4999999999999997E-2</v>
@@ -4329,7 +4329,7 @@
         <v>57</v>
       </c>
       <c r="F205" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G205" t="s">
         <v>17</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B206">
         <v>7.4999999999999997E-2</v>
@@ -4349,7 +4349,7 @@
         <v>57</v>
       </c>
       <c r="F206" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G206" t="s">
         <v>17</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B207">
         <v>0.18852782774999999</v>
       </c>
       <c r="C207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -4375,18 +4375,18 @@
         <v>18</v>
       </c>
       <c r="H207" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208">
         <v>0.13861725499999999</v>
       </c>
       <c r="C208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -4398,18 +4398,18 @@
         <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B209">
         <v>7.7348066002303498E-2</v>
       </c>
       <c r="C209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -4421,18 +4421,18 @@
         <v>19</v>
       </c>
       <c r="H209" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B210">
         <v>5.9833142249999999E-2</v>
       </c>
       <c r="C210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D210" t="s">
         <v>21</v>
@@ -4444,7 +4444,7 @@
         <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>5.9833142250000004E-3</v>
       </c>
       <c r="C211" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B212">
         <v>1.9777030709528598E-3</v>
       </c>
       <c r="C212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -4490,18 +4490,18 @@
         <v>19</v>
       </c>
       <c r="H212" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B213">
         <v>-9.9225694999999798E-3</v>
       </c>
       <c r="C213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
@@ -4513,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="H213" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>3.5899885350000001E-2</v>
       </c>
       <c r="C214" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -4552,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -4581,10 +4581,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -4640,13 +4640,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B225">
         <v>21.612062241046353</v>
       </c>
       <c r="C225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D225" t="s">
         <v>4</v>
@@ -4658,18 +4658,18 @@
         <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B226">
         <v>0.39372064434026838</v>
       </c>
       <c r="C226" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -4681,18 +4681,18 @@
         <v>19</v>
       </c>
       <c r="H226" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B227">
         <v>18.898590928332883</v>
       </c>
       <c r="C227" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -4704,7 +4704,7 @@
         <v>19</v>
       </c>
       <c r="H227" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -4715,7 +4715,7 @@
         <v>1.9260300240329271</v>
       </c>
       <c r="C228" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D228" t="s">
         <v>21</v>
@@ -4727,7 +4727,7 @@
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -4738,7 +4738,7 @@
         <v>0.39372064434026838</v>
       </c>
       <c r="C229" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D229" t="s">
         <v>21</v>
@@ -4750,7 +4750,7 @@
         <v>19</v>
       </c>
       <c r="H229" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -4761,7 +4761,7 @@
         <v>3.1061357705212793</v>
       </c>
       <c r="C230" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -4784,7 +4784,7 @@
         <v>74.629587023119612</v>
       </c>
       <c r="C231" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D231" t="s">
         <v>4</v>
@@ -4807,7 +4807,7 @@
         <v>99.776539479452978</v>
       </c>
       <c r="C232" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
@@ -4830,7 +4830,7 @@
         <v>18.636814623127677</v>
       </c>
       <c r="C233" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D233" t="s">
         <v>4</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -4858,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -4895,10 +4895,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B241" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -4934,7 +4934,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B244">
         <v>2.496E-3</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B246">
         <v>0.01</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B247">
         <v>1.279E-3</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B248">
         <v>1.8699999999999999E-4</v>
@@ -5034,13 +5034,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D249" t="s">
         <v>4</v>
@@ -5052,21 +5052,21 @@
         <v>18</v>
       </c>
       <c r="H249" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250">
         <v>0.19777800000000001</v>
       </c>
       <c r="C250" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D250" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E250" t="s">
         <v>7</v>
@@ -5075,18 +5075,18 @@
         <v>19</v>
       </c>
       <c r="H250" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B251">
         <v>0.79940900000000004</v>
       </c>
       <c r="C251" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D251" t="s">
         <v>4</v>
@@ -5098,18 +5098,18 @@
         <v>19</v>
       </c>
       <c r="H251" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B252">
         <v>0.98708899999999999</v>
       </c>
       <c r="C252" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D252" t="s">
         <v>21</v>
@@ -5121,18 +5121,18 @@
         <v>19</v>
       </c>
       <c r="H252" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B253">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C253" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D253" t="s">
         <v>21</v>
@@ -5144,18 +5144,18 @@
         <v>19</v>
       </c>
       <c r="H253" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B254">
         <v>0.01</v>
       </c>
       <c r="C254" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D254" t="s">
         <v>4</v>
@@ -5167,18 +5167,18 @@
         <v>19</v>
       </c>
       <c r="H254" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B255">
         <v>0.65286200000000005</v>
       </c>
       <c r="C255" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D255" t="s">
         <v>4</v>
@@ -5190,18 +5190,18 @@
         <v>19</v>
       </c>
       <c r="H255" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B256">
         <v>0.249969</v>
       </c>
       <c r="C256" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D256" t="s">
         <v>21</v>
@@ -5213,18 +5213,18 @@
         <v>19</v>
       </c>
       <c r="H256" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B257">
         <v>0.63938200000000001</v>
       </c>
       <c r="C257" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D257" t="s">
         <v>21</v>
@@ -5236,18 +5236,18 @@
         <v>19</v>
       </c>
       <c r="H257" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B258">
         <v>0.640934</v>
       </c>
       <c r="C258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D258" t="s">
         <v>21</v>
@@ -5259,18 +5259,18 @@
         <v>19</v>
       </c>
       <c r="H258" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B259">
         <v>2.2634189999999998</v>
       </c>
       <c r="C259" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D259" t="s">
         <v>56</v>
@@ -5287,13 +5287,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B260">
         <v>0.40388299999999999</v>
       </c>
       <c r="C260" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D260" t="s">
         <v>4</v>
@@ -5305,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="H260" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>-8.1999999999999998E-4</v>
       </c>
       <c r="C261" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D261" t="s">
         <v>56</v>
@@ -5339,7 +5339,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D262" t="s">
         <v>4</v>
@@ -5356,13 +5356,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B263">
         <v>15.561019999999999</v>
       </c>
       <c r="C263" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D263" t="s">
         <v>4</v>
@@ -5374,7 +5374,7 @@
         <v>19</v>
       </c>
       <c r="H263" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -5406,7 +5406,7 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -5427,10 +5427,10 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B271" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B275">
         <v>1.63</v>
@@ -5495,10 +5495,10 @@
         <v>31</v>
       </c>
       <c r="E275" t="s">
+        <v>90</v>
+      </c>
+      <c r="F275" t="s">
         <v>91</v>
-      </c>
-      <c r="F275" t="s">
-        <v>92</v>
       </c>
       <c r="G275" t="s">
         <v>17</v>
@@ -5506,13 +5506,13 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
@@ -5524,18 +5524,18 @@
         <v>18</v>
       </c>
       <c r="H276" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B277">
         <v>1.2</v>
       </c>
       <c r="C277" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D277" t="s">
         <v>60</v>
@@ -5547,18 +5547,18 @@
         <v>19</v>
       </c>
       <c r="H277" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B278">
         <v>105.79</v>
       </c>
       <c r="C278" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D278" t="s">
         <v>21</v>
@@ -5570,7 +5570,7 @@
         <v>19</v>
       </c>
       <c r="H278" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -5581,7 +5581,7 @@
         <v>0.12</v>
       </c>
       <c r="C279" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
@@ -5604,7 +5604,7 @@
         <v>1.78</v>
       </c>
       <c r="C280" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
@@ -5627,7 +5627,7 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="C281" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D281" t="s">
         <v>4</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>5</v>
       </c>
       <c r="B286" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -5684,10 +5684,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B288" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -5746,13 +5746,13 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B292">
         <v>10.958581208608772</v>
       </c>
       <c r="C292" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D292" t="s">
         <v>4</v>
@@ -5764,18 +5764,18 @@
         <v>18</v>
       </c>
       <c r="H292" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B293">
         <v>0.45837082374932231</v>
       </c>
       <c r="C293" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D293" t="s">
         <v>4</v>
@@ -5787,18 +5787,18 @@
         <v>19</v>
       </c>
       <c r="H293" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B294">
         <v>8.4482150228766919</v>
       </c>
       <c r="C294" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D294" t="s">
         <v>4</v>
@@ -5810,7 +5810,7 @@
         <v>19</v>
       </c>
       <c r="H294" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -5821,7 +5821,7 @@
         <v>1.7769728677331647</v>
       </c>
       <c r="C295" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D295" t="s">
         <v>21</v>
@@ -5833,7 +5833,7 @@
         <v>19</v>
       </c>
       <c r="H295" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -5844,7 +5844,7 @@
         <v>0.27502249424959335</v>
       </c>
       <c r="C296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D296" t="s">
         <v>21</v>
@@ -5856,7 +5856,7 @@
         <v>19</v>
       </c>
       <c r="H296" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -5867,7 +5867,7 @@
         <v>1.0958581208608771</v>
       </c>
       <c r="C297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D297" t="s">
         <v>4</v>
@@ -5890,7 +5890,7 @@
         <v>34.807402077468105</v>
       </c>
       <c r="C298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D298" t="s">
         <v>4</v>
@@ -5913,7 +5913,7 @@
         <v>6.5751487251652625</v>
       </c>
       <c r="C299" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D299" t="s">
         <v>4</v>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -5941,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -5957,7 +5957,7 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -5970,10 +5970,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B307" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B310">
         <v>3.2919999999999998E-3</v>
@@ -6027,7 +6027,7 @@
         <v>57</v>
       </c>
       <c r="F310" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G310" t="s">
         <v>17</v>
@@ -6035,13 +6035,13 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
@@ -6053,18 +6053,18 @@
         <v>18</v>
       </c>
       <c r="J311" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B312">
         <v>4.1165589999999996</v>
       </c>
       <c r="C312" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
@@ -6076,18 +6076,18 @@
         <v>19</v>
       </c>
       <c r="J312" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B313">
         <v>6.3099999999999999E-10</v>
       </c>
       <c r="C313" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D313" t="s">
         <v>21</v>
@@ -6099,41 +6099,41 @@
         <v>19</v>
       </c>
       <c r="J313" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B314">
         <v>0.110591844610756</v>
       </c>
       <c r="C314" t="s">
+        <v>165</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" t="s">
+        <v>7</v>
+      </c>
+      <c r="G314" t="s">
+        <v>19</v>
+      </c>
+      <c r="J314" t="s">
         <v>166</v>
-      </c>
-      <c r="D314" t="s">
-        <v>4</v>
-      </c>
-      <c r="E314" t="s">
-        <v>7</v>
-      </c>
-      <c r="G314" t="s">
-        <v>19</v>
-      </c>
-      <c r="J314" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B315">
         <v>0.58521199999999995</v>
       </c>
       <c r="C315" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
@@ -6145,18 +6145,18 @@
         <v>19</v>
       </c>
       <c r="J315" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B316">
         <v>0.46507999999999999</v>
       </c>
       <c r="C316" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D316" t="s">
         <v>21</v>
@@ -6168,18 +6168,18 @@
         <v>19</v>
       </c>
       <c r="J316" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B317">
         <v>0.18879541274411121</v>
       </c>
       <c r="C317" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D317" t="s">
         <v>21</v>
@@ -6191,24 +6191,24 @@
         <v>19</v>
       </c>
       <c r="H317" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I317">
         <v>0.20767495381477699</v>
       </c>
       <c r="J317" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B318">
         <v>1.0022394929271801</v>
       </c>
       <c r="C318" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D318" t="s">
         <v>21</v>
@@ -6220,18 +6220,18 @@
         <v>19</v>
       </c>
       <c r="J318" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B319">
         <v>1.0481828925574601</v>
       </c>
       <c r="C319" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D319" t="s">
         <v>56</v>
@@ -6248,13 +6248,13 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B320">
         <v>2.11713328049641</v>
       </c>
       <c r="C320" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
@@ -6266,7 +6266,7 @@
         <v>19</v>
       </c>
       <c r="J320" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -6277,7 +6277,7 @@
         <v>-2.9967700185340698E-3</v>
       </c>
       <c r="C321" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D321" t="s">
         <v>56</v>
@@ -6300,7 +6300,7 @@
         <v>1.9749609733914301E-4</v>
       </c>
       <c r="C322" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
@@ -6317,13 +6317,13 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B323">
         <v>1.1155237898039301</v>
       </c>
       <c r="C323" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
@@ -6335,18 +6335,18 @@
         <v>19</v>
       </c>
       <c r="J323" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B324">
         <v>-0.10135940306567701</v>
       </c>
       <c r="C324" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -6358,18 +6358,18 @@
         <v>19</v>
       </c>
       <c r="J324" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B325">
         <v>-1.4227000000000001</v>
       </c>
       <c r="C325" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D325" t="s">
         <v>4</v>
@@ -6381,7 +6381,7 @@
         <v>19</v>
       </c>
       <c r="J325" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -6397,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="B328" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -6413,7 +6413,7 @@
         <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -6426,10 +6426,10 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B332" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -6485,13 +6485,13 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B336">
         <v>15.488183266908818</v>
       </c>
       <c r="C336" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D336" t="s">
         <v>4</v>
@@ -6503,18 +6503,18 @@
         <v>18</v>
       </c>
       <c r="H336" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B337">
         <v>0.2742242079835131</v>
       </c>
       <c r="C337" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D337" t="s">
         <v>4</v>
@@ -6526,18 +6526,18 @@
         <v>19</v>
       </c>
       <c r="H337" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B338">
         <v>13.162761983208627</v>
       </c>
       <c r="C338" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D338" t="s">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         <v>19</v>
       </c>
       <c r="H338" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -6560,7 +6560,7 @@
         <v>1.7769728677331647</v>
       </c>
       <c r="C339" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D339" t="s">
         <v>21</v>
@@ -6572,7 +6572,7 @@
         <v>19</v>
       </c>
       <c r="H339" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>0.2742242079835131</v>
       </c>
       <c r="C340" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D340" t="s">
         <v>21</v>
@@ -6595,7 +6595,7 @@
         <v>19</v>
       </c>
       <c r="H340" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -6606,7 +6606,7 @@
         <v>2.2069564258513132</v>
       </c>
       <c r="C341" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D341" t="s">
         <v>4</v>
@@ -6629,7 +6629,7 @@
         <v>69.49379695325851</v>
       </c>
       <c r="C342" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D342" t="s">
         <v>4</v>
@@ -6652,7 +6652,7 @@
         <v>51.979086409969391</v>
       </c>
       <c r="C343" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D343" t="s">
         <v>4</v>
@@ -6675,7 +6675,7 @@
         <v>13.241738555107881</v>
       </c>
       <c r="C344" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D344" t="s">
         <v>4</v>
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="B348" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
@@ -6741,10 +6741,10 @@
     </row>
     <row r="352" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B352" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C352"/>
       <c r="D352"/>
@@ -6823,7 +6823,7 @@
         <v>17</v>
       </c>
       <c r="H355" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I355">
         <v>1</v>
@@ -6831,13 +6831,13 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B356">
         <v>2.2000000000000002</v>
       </c>
       <c r="C356" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D356" t="s">
         <v>4</v>
@@ -6854,13 +6854,13 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B357">
         <v>1.1000000000000001</v>
       </c>
       <c r="C357" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D357" t="s">
         <v>4</v>
@@ -6872,18 +6872,18 @@
         <v>19</v>
       </c>
       <c r="J357" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B358">
         <v>2.2000000000000002</v>
       </c>
       <c r="C358" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D358" t="s">
         <v>21</v>
@@ -6895,7 +6895,7 @@
         <v>19</v>
       </c>
       <c r="J358" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
@@ -6906,7 +6906,7 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="C359" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D359" t="s">
         <v>56</v>
@@ -6929,7 +6929,7 @@
         <v>7.6</v>
       </c>
       <c r="C360" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D360" t="s">
         <v>4</v>
@@ -6946,13 +6946,13 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B361">
         <v>0.22</v>
       </c>
       <c r="C361" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D361" t="s">
         <v>4</v>
@@ -6964,7 +6964,7 @@
         <v>19</v>
       </c>
       <c r="J361" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
@@ -6980,15 +6980,15 @@
         <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>228</v>
+      </c>
+      <c r="B365" t="s">
         <v>229</v>
-      </c>
-      <c r="B365" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
@@ -7004,7 +7004,7 @@
         <v>5</v>
       </c>
       <c r="B367" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
@@ -7017,10 +7017,10 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B369" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
@@ -7076,7 +7076,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B373">
         <v>0.26300000000000001</v>
@@ -7096,13 +7096,13 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B374">
         <v>1</v>
       </c>
       <c r="C374" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D374" t="s">
         <v>4</v>
@@ -7114,18 +7114,18 @@
         <v>18</v>
       </c>
       <c r="H374" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B375">
         <v>1.25E-3</v>
       </c>
       <c r="C375" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D375" t="s">
         <v>4</v>
@@ -7137,18 +7137,18 @@
         <v>19</v>
       </c>
       <c r="H375" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B376">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C376" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D376" t="s">
         <v>4</v>
@@ -7160,18 +7160,18 @@
         <v>19</v>
       </c>
       <c r="H376" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B377">
         <v>4.04</v>
       </c>
       <c r="C377" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D377" t="s">
         <v>4</v>
@@ -7183,18 +7183,18 @@
         <v>19</v>
       </c>
       <c r="H377" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B378">
         <v>7.44</v>
       </c>
       <c r="C378" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D378" t="s">
         <v>4</v>
@@ -7206,18 +7206,18 @@
         <v>19</v>
       </c>
       <c r="H378" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B379">
         <v>-8.6</v>
       </c>
       <c r="C379" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D379" t="s">
         <v>60</v>
@@ -7229,18 +7229,18 @@
         <v>19</v>
       </c>
       <c r="H379" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B380">
         <v>1.98</v>
       </c>
       <c r="C380" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D380" t="s">
         <v>21</v>
@@ -7252,18 +7252,18 @@
         <v>19</v>
       </c>
       <c r="H380" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B381">
         <v>0.31900000000000001</v>
       </c>
       <c r="C381" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D381" t="s">
         <v>21</v>
@@ -7275,7 +7275,7 @@
         <v>19</v>
       </c>
       <c r="H381" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -7286,7 +7286,7 @@
         <v>1.3779999999999999</v>
       </c>
       <c r="C382" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D382" t="s">
         <v>4</v>
@@ -7309,7 +7309,7 @@
         <v>-3.6099999999999999E-3</v>
       </c>
       <c r="C383" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D383" t="s">
         <v>56</v>
@@ -7332,7 +7332,7 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="C384" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D384" t="s">
         <v>4</v>
@@ -7355,7 +7355,7 @@
         <v>8.2669999999999995</v>
       </c>
       <c r="C385" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D385" t="s">
         <v>4</v>
@@ -7372,13 +7372,13 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B386">
         <v>-4.24E-2</v>
       </c>
       <c r="C386" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D386" t="s">
         <v>21</v>
@@ -7390,7 +7390,7 @@
         <v>19</v>
       </c>
       <c r="H386" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -7406,15 +7406,15 @@
         <v>2</v>
       </c>
       <c r="B389" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B390" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -7430,7 +7430,7 @@
         <v>5</v>
       </c>
       <c r="B392" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -7443,10 +7443,10 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B394" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="395" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7522,7 +7522,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B399">
         <v>2.5700000000000001E-2</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B400">
         <v>0.19400000000000001</v>
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="F400" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G400" t="s">
         <v>17</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B401">
         <v>0.80900000000000005</v>
@@ -7574,7 +7574,7 @@
         <v>7</v>
       </c>
       <c r="F401" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G401" t="s">
         <v>17</v>
@@ -7582,13 +7582,13 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
       <c r="C402" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -7600,18 +7600,18 @@
         <v>18</v>
       </c>
       <c r="H402" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B403">
         <v>1.3</v>
       </c>
       <c r="C403" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D403" t="s">
         <v>21</v>
@@ -7623,18 +7623,18 @@
         <v>19</v>
       </c>
       <c r="H403" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B404">
         <v>1.42</v>
       </c>
       <c r="C404" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D404" t="s">
         <v>21</v>
@@ -7646,18 +7646,18 @@
         <v>19</v>
       </c>
       <c r="H404" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B405">
         <v>1.63</v>
       </c>
       <c r="C405" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D405" t="s">
         <v>4</v>
@@ -7669,7 +7669,7 @@
         <v>19</v>
       </c>
       <c r="H405" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
@@ -7680,7 +7680,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="C406" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -7697,13 +7697,13 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B407">
         <v>2.62</v>
       </c>
       <c r="C407" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D407" t="s">
         <v>4</v>
@@ -7715,7 +7715,7 @@
         <v>19</v>
       </c>
       <c r="H407" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
@@ -7726,7 +7726,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="C408" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
@@ -7743,13 +7743,13 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B409">
         <v>7.98</v>
       </c>
       <c r="C409" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D409" t="s">
         <v>56</v>
@@ -7769,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
@@ -7777,7 +7777,7 @@
         <v>2</v>
       </c>
       <c r="B412" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
@@ -7793,7 +7793,7 @@
         <v>5</v>
       </c>
       <c r="B414" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
@@ -7806,10 +7806,10 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="417" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7842,13 +7842,13 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B419">
         <v>1</v>
       </c>
       <c r="C419" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D419" t="s">
         <v>4</v>
@@ -7860,18 +7860,18 @@
         <v>18</v>
       </c>
       <c r="G419" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B420">
         <v>0.13180285392336399</v>
       </c>
       <c r="C420" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D420" t="s">
         <v>4</v>
@@ -7883,18 +7883,18 @@
         <v>19</v>
       </c>
       <c r="G420" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B421">
         <v>0.38852820840736102</v>
       </c>
       <c r="C421" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D421" t="s">
         <v>21</v>
@@ -7906,18 +7906,18 @@
         <v>19</v>
       </c>
       <c r="G421" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B422">
         <v>0.47966893766927499</v>
       </c>
       <c r="C422" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D422" t="s">
         <v>21</v>
@@ -7929,7 +7929,7 @@
         <v>19</v>
       </c>
       <c r="G422" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
@@ -7940,7 +7940,7 @@
         <v>0.1</v>
       </c>
       <c r="C423" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D423" t="s">
         <v>4</v>
@@ -7963,7 +7963,7 @@
         <v>0.6</v>
       </c>
       <c r="C424" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
@@ -7983,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
@@ -7999,7 +7999,7 @@
         <v>5</v>
       </c>
       <c r="B428" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
@@ -8015,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="B430" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
@@ -8028,10 +8028,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B432" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
@@ -8074,13 +8074,13 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B435">
         <v>1</v>
       </c>
       <c r="C435" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D435" t="s">
         <v>4</v>
@@ -8092,19 +8092,19 @@
         <v>18</v>
       </c>
       <c r="G435" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B436">
         <f>(1/0.0562)*0.0085612534146254</f>
         <v>0.1523354700111281</v>
       </c>
       <c r="C436" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D436" t="s">
         <v>4</v>
@@ -8116,22 +8116,22 @@
         <v>19</v>
       </c>
       <c r="G436" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H436" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B437">
         <f>(1/0.0562)*0.0165620491137194</f>
         <v>0.29469838280639504</v>
       </c>
       <c r="C437" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D437" t="s">
         <v>4</v>
@@ -8143,19 +8143,19 @@
         <v>19</v>
       </c>
       <c r="G437" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B438">
         <f>(1/0.0562)*0.0209977698868578</f>
         <v>0.37362579869853735</v>
       </c>
       <c r="C438" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D438" t="s">
         <v>4</v>
@@ -8167,19 +8167,19 @@
         <v>19</v>
       </c>
       <c r="G438" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B439">
         <f>(1/0.0562)*0.00925252694737966</f>
         <v>0.16463571080746725</v>
       </c>
       <c r="C439" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D439" t="s">
         <v>4</v>
@@ -8191,19 +8191,19 @@
         <v>19</v>
       </c>
       <c r="G439" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B440">
         <f>(1/0.0562)*0.000803030859695695</f>
         <v>1.4288805332663612E-2</v>
       </c>
       <c r="C440" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D440" t="s">
         <v>21</v>
@@ -8215,7 +8215,7 @@
         <v>19</v>
       </c>
       <c r="G440" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
@@ -8227,7 +8227,7 @@
         <v>1.8465280515118683</v>
       </c>
       <c r="C441" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D441" t="s">
         <v>4</v>
@@ -8251,7 +8251,7 @@
         <v>2.3838491940562991</v>
       </c>
       <c r="C442" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -8271,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
@@ -8287,7 +8287,7 @@
         <v>5</v>
       </c>
       <c r="B446" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="B448" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
@@ -8316,10 +8316,10 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B450" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
@@ -8352,13 +8352,13 @@
     </row>
     <row r="453" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B453">
         <v>1</v>
       </c>
       <c r="C453" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D453" t="s">
         <v>4</v>
@@ -8370,7 +8370,7 @@
         <v>18</v>
       </c>
       <c r="G453" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H453"/>
       <c r="I453"/>
@@ -8379,14 +8379,14 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B454">
         <f>(1/0.053177)*0.0085612534146254</f>
         <v>0.1609954193471877</v>
       </c>
       <c r="C454" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D454" t="s">
         <v>4</v>
@@ -8398,22 +8398,22 @@
         <v>19</v>
       </c>
       <c r="G454" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H454" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B455">
         <f>(1/0.053177)*0.0130181682473286</f>
         <v>0.24480824881675539</v>
       </c>
       <c r="C455" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D455" t="s">
         <v>4</v>
@@ -8425,19 +8425,19 @@
         <v>19</v>
       </c>
       <c r="G455" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B456">
         <f>(1/0.053177)*0.0216120622410464</f>
         <v>0.40641747825274838</v>
       </c>
       <c r="C456" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D456" t="s">
         <v>4</v>
@@ -8449,19 +8449,19 @@
         <v>19</v>
       </c>
       <c r="G456" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B457">
         <f>(1/0.053177)*0.00934397682507009</f>
         <v>0.17571462897625084</v>
       </c>
       <c r="C457" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D457" t="s">
         <v>4</v>
@@ -8473,19 +8473,19 @@
         <v>19</v>
       </c>
       <c r="G457" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B458">
         <f>(1/0.053177)*0.000642010008010976</f>
         <v>1.2073076856742127E-2</v>
       </c>
       <c r="C458" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D458" t="s">
         <v>21</v>
@@ -8497,7 +8497,7 @@
         <v>19</v>
       </c>
       <c r="G458" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
@@ -8509,7 +8509,7 @@
         <v>1.9707874426168082</v>
       </c>
       <c r="C459" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D459" t="s">
         <v>4</v>
@@ -8533,7 +8533,7 @@
         <v>2.3682836323916541</v>
       </c>
       <c r="C460" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D460" t="s">
         <v>4</v>
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
@@ -8569,7 +8569,7 @@
         <v>5</v>
       </c>
       <c r="B464" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
@@ -8585,7 +8585,7 @@
         <v>2</v>
       </c>
       <c r="B466" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
@@ -8598,10 +8598,10 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B468" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
@@ -8647,13 +8647,13 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B471">
         <v>1</v>
       </c>
       <c r="C471" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D471" t="s">
         <v>4</v>
@@ -8665,19 +8665,19 @@
         <v>18</v>
       </c>
       <c r="G471" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B472">
         <f>(1/0.045)*0.0085612534146254</f>
         <v>0.19025007588056442</v>
       </c>
       <c r="C472" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D472" t="s">
         <v>4</v>
@@ -8689,22 +8689,22 @@
         <v>19</v>
       </c>
       <c r="G472" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H472" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B473">
         <f>(1/0.045)*0.0109585812086088</f>
         <v>0.24352402685797334</v>
       </c>
       <c r="C473" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D473" t="s">
         <v>4</v>
@@ -8716,22 +8716,22 @@
         <v>19</v>
       </c>
       <c r="G473" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H473" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B474">
         <f>(1/0.045)*0.0154881832669088</f>
         <v>0.34418185037575111</v>
       </c>
       <c r="C474" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D474" t="s">
         <v>4</v>
@@ -8743,22 +8743,22 @@
         <v>19</v>
       </c>
       <c r="G474" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H474" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B475">
         <f>(1/0.045)*0.00937223587605556</f>
         <v>0.20827190835679019</v>
       </c>
       <c r="C475" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D475" t="s">
         <v>4</v>
@@ -8770,22 +8770,22 @@
         <v>19</v>
       </c>
       <c r="G475" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H475" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B476">
         <f>(1/0.045)*0.000592324289244388</f>
         <v>1.3162761983208621E-2</v>
       </c>
       <c r="C476" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D476" t="s">
         <v>21</v>
@@ -8797,10 +8797,10 @@
         <v>19</v>
       </c>
       <c r="G476" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H476" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.2">
@@ -8812,7 +8812,7 @@
         <v>2.3359447305601111</v>
       </c>
       <c r="C477" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D477" t="s">
         <v>4</v>
@@ -8827,7 +8827,7 @@
         <v>62</v>
       </c>
       <c r="H477" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
@@ -8839,7 +8839,7 @@
         <v>2.0803297879019533</v>
       </c>
       <c r="C478" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D478" t="s">
         <v>4</v>
@@ -8854,7 +8854,7 @@
         <v>62</v>
       </c>
       <c r="H478" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="480" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="481" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>5</v>
       </c>
       <c r="B484" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
@@ -8907,10 +8907,10 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B486" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.2">
@@ -8946,7 +8946,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -8961,12 +8961,12 @@
         <v>18</v>
       </c>
       <c r="G489" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B490" s="4">
         <f>408*0.046/24.971</f>
@@ -8982,12 +8982,12 @@
         <v>19</v>
       </c>
       <c r="G490" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B491" s="4">
         <f>0.275/24.971</f>
@@ -9003,12 +9003,12 @@
         <v>19</v>
       </c>
       <c r="G491" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B492" s="4">
         <f>0.593/24.971</f>
@@ -9024,12 +9024,12 @@
         <v>19</v>
       </c>
       <c r="G492" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="493" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B493" s="5">
         <f>0.085/24.971</f>
@@ -9045,12 +9045,12 @@
         <v>19</v>
       </c>
       <c r="G493" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B494" s="6">
         <f>2.75/24.971</f>
@@ -9066,7 +9066,7 @@
         <v>19</v>
       </c>
       <c r="G494" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I494" s="7"/>
       <c r="J494" s="8"/>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B495" s="6">
         <f>2.5/24.971</f>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B496" s="6">
         <f>2.75/24.971</f>
@@ -9111,12 +9111,12 @@
         <v>19</v>
       </c>
       <c r="G496" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B497" s="9">
         <f>2.5/24.971</f>
@@ -9132,7 +9132,7 @@
         <v>19</v>
       </c>
       <c r="G497" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.2">
@@ -9151,7 +9151,7 @@
         <v>2</v>
       </c>
       <c r="B500" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.2">
@@ -9164,7 +9164,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -9175,7 +9175,7 @@
         <v>5</v>
       </c>
       <c r="B503" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
@@ -9188,10 +9188,10 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B505" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
@@ -9256,7 +9256,7 @@
     </row>
     <row r="509" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -9271,7 +9271,7 @@
         <v>19</v>
       </c>
       <c r="G509" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
@@ -9296,7 +9296,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B511">
         <v>2.4627409999999999E-2</v>
@@ -9311,12 +9311,12 @@
         <v>19</v>
       </c>
       <c r="G511" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B512">
         <v>0.20877976500000001</v>
@@ -9336,7 +9336,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B513">
         <v>0.59901584900000004</v>
@@ -9351,7 +9351,7 @@
         <v>19</v>
       </c>
       <c r="G513" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14568C-C254-A746-BFBC-7E9182BF391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80EB977-5A74-2C4B-920F-CC8792F11906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1747,8 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <v>-8</v>
+        <f>-8/1000</f>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="C35" t="s">
         <v>165</v>

--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80EB977-5A74-2C4B-920F-CC8792F11906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18974D2D-D0D8-4C99-B853-578B8B4A6F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sodium-ion batteries" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sodium-ion batteries'!$A$1:$K$478</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sodium-ion batteries'!$A$1:$K$479</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="261">
   <si>
     <t>Database</t>
   </si>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>nickel carbonate production</t>
-  </si>
-  <si>
-    <t>nickel carbonate</t>
   </si>
   <si>
     <t>1,2-Dichloro-1,1-difluoroethane (R-132b) production</t>
@@ -857,6 +854,16 @@
   </si>
   <si>
     <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>Original inventory from Peters, J., Buchholz, D., Passerini, S., &amp; Weil, M. (2016). Life cycle assessment of sodium-ion batteries. Energy &amp; Environmental Science, 9(5), 1744-1751.
+Inventory obtained from Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
+  </si>
+  <si>
+    <t>Carbonate</t>
+  </si>
+  <si>
+    <t>nickel carbonate, anhydrous, at plant</t>
   </si>
 </sst>
 </file>
@@ -930,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -942,6 +949,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,24 +1254,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K514"/>
+  <dimension ref="A1:K515"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A503" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1271,15 +1279,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,15 +1295,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1327,20 +1335,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -1386,7 +1394,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -1409,9 +1417,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15">
         <v>1.2140184349262255</v>
@@ -1429,10 +1437,10 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1570,23 +1578,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1594,15 +1602,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1610,15 +1618,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1641,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -1679,9 +1687,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <v>9.3699999999999999E-3</v>
@@ -1699,7 +1707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -1719,9 +1727,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1739,10 +1747,10 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1812,9 +1820,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38">
         <v>-4.7199999999999998E-4</v>
@@ -1832,10 +1840,10 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1843,15 +1851,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1883,20 +1891,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>173</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1965,7 +1973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -1988,7 +1996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1996,15 +2004,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2036,20 +2044,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -2118,9 +2126,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64">
         <v>2.2000000000000002</v>
@@ -2141,7 +2149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -2164,7 +2172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -2256,7 +2264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -2279,7 +2287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -2310,15 +2318,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2350,20 +2358,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -2409,7 +2417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -2432,7 +2440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -2455,7 +2463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>65</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -2532,15 +2540,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2572,20 +2580,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -2671,7 +2679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -2691,7 +2699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -2711,7 +2719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>179</v>
       </c>
@@ -2734,9 +2742,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B105">
         <v>0.23881589999999997</v>
@@ -2757,7 +2765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>77</v>
       </c>
@@ -2803,7 +2811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -2826,7 +2834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -2849,7 +2857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2872,7 +2880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>55</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -2918,7 +2926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -2941,7 +2949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -2964,7 +2972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -2972,15 +2980,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -3012,20 +3020,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -3071,7 +3079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>183</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -3117,7 +3125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>179</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -3263,15 +3271,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -3295,7 +3303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -3303,20 +3311,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>69</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>181</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>199</v>
       </c>
@@ -3448,10 +3456,10 @@
         <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>101</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -3566,7 +3574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>25</v>
       </c>
@@ -3589,7 +3597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>81</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>27</v>
       </c>
@@ -3635,7 +3643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -3643,15 +3651,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -3683,20 +3691,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -3742,7 +3750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>185</v>
       </c>
@@ -3765,7 +3773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3811,7 +3819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -3834,7 +3842,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -3880,7 +3888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -3926,7 +3934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -3934,15 +3942,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -3950,7 +3958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -3966,7 +3974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3974,20 +3982,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>172</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -4217,7 +4225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4225,15 +4233,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -4241,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -4257,20 +4265,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B201" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -4296,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>83</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>106</v>
       </c>
@@ -4356,7 +4364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -4379,9 +4387,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>0.13861725499999999</v>
@@ -4399,12 +4407,12 @@
         <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B209">
         <v>7.7348066002303498E-2</v>
@@ -4425,7 +4433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>108</v>
       </c>
@@ -4448,7 +4456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -4471,7 +4479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>81</v>
       </c>
@@ -4494,7 +4502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>110</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -4540,7 +4548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -4548,15 +4556,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +4572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -4580,20 +4588,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -4619,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>188</v>
       </c>
@@ -4662,7 +4670,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>175</v>
       </c>
@@ -4685,7 +4693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>22</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -4823,7 +4831,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>27</v>
       </c>
@@ -4846,7 +4854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
@@ -4854,15 +4862,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -4886,7 +4894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -4894,20 +4902,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B241" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -4933,7 +4941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>112</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>69</v>
       </c>
@@ -4973,7 +4981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>113</v>
       </c>
@@ -4993,7 +5001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>114</v>
       </c>
@@ -5013,7 +5021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>83</v>
       </c>
@@ -5033,7 +5041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>190</v>
       </c>
@@ -5056,9 +5064,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B250">
         <v>0.19777800000000001</v>
@@ -5076,12 +5084,12 @@
         <v>19</v>
       </c>
       <c r="H250" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B251">
         <v>0.79940900000000004</v>
@@ -5102,7 +5110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>116</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>77</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>118</v>
       </c>
@@ -5171,7 +5179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>120</v>
       </c>
@@ -5194,7 +5202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>122</v>
       </c>
@@ -5217,7 +5225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>124</v>
       </c>
@@ -5240,7 +5248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>101</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>126</v>
       </c>
@@ -5286,7 +5294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>127</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>55</v>
       </c>
@@ -5332,7 +5340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>25</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>81</v>
       </c>
@@ -5378,7 +5386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1</v>
       </c>
@@ -5386,15 +5394,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5418,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -5418,7 +5426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -5426,20 +5434,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B271" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -5485,7 +5493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>89</v>
       </c>
@@ -5505,7 +5513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>181</v>
       </c>
@@ -5528,7 +5536,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>92</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>94</v>
       </c>
@@ -5574,7 +5582,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -5597,7 +5605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1</v>
       </c>
@@ -5651,15 +5659,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -5667,7 +5675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -5683,20 +5691,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B288" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>14</v>
       </c>
@@ -5745,7 +5753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>192</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>173</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>179</v>
       </c>
@@ -5814,7 +5822,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>22</v>
       </c>
@@ -5860,7 +5868,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -5883,7 +5891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1</v>
       </c>
@@ -5937,15 +5945,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5953,7 +5961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5969,20 +5977,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B307" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -6014,7 +6022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>83</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>194</v>
       </c>
@@ -6057,9 +6065,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B312">
         <v>4.1165589999999996</v>
@@ -6080,7 +6088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>77</v>
       </c>
@@ -6103,7 +6111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>130</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>131</v>
       </c>
@@ -6149,7 +6157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>133</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>135</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>138</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>126</v>
       </c>
@@ -6247,7 +6255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>127</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>55</v>
       </c>
@@ -6293,7 +6301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>25</v>
       </c>
@@ -6316,7 +6324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>81</v>
       </c>
@@ -6339,7 +6347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>110</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>110</v>
       </c>
@@ -6385,7 +6393,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -6393,15 +6401,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2</v>
       </c>
       <c r="B328" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>3</v>
       </c>
@@ -6409,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -6417,7 +6425,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -6425,20 +6433,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B332" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -6464,7 +6472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -6484,7 +6492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>195</v>
       </c>
@@ -6507,7 +6515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>175</v>
       </c>
@@ -6530,7 +6538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>194</v>
       </c>
@@ -6553,7 +6561,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>20</v>
       </c>
@@ -6576,7 +6584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>25</v>
       </c>
@@ -6645,7 +6653,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>25</v>
       </c>
@@ -6668,7 +6676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -6691,23 +6699,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2</v>
       </c>
       <c r="B348" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>3</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -6723,7 +6731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -6740,12 +6748,12 @@
       <c r="J351"/>
       <c r="K351"/>
     </row>
-    <row r="352" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B352" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C352"/>
       <c r="D352"/>
@@ -6757,7 +6765,7 @@
       <c r="J352"/>
       <c r="K352"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>8</v>
       </c>
@@ -6772,7 +6780,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -6804,7 +6812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -6830,9 +6838,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B356">
         <v>2.2000000000000002</v>
@@ -6853,7 +6861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>142</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>157</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>55</v>
       </c>
@@ -6922,7 +6930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>25</v>
       </c>
@@ -6945,7 +6953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>159</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -6976,23 +6984,23 @@
         <v>197</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>227</v>
+      </c>
+      <c r="B365" t="s">
         <v>228</v>
       </c>
-      <c r="B365" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -7008,7 +7016,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -7016,20 +7024,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B369" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>140</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>197</v>
       </c>
@@ -7118,9 +7126,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B375">
         <v>1.25E-3</v>
@@ -7141,7 +7149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>141</v>
       </c>
@@ -7164,7 +7172,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>142</v>
       </c>
@@ -7187,7 +7195,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>144</v>
       </c>
@@ -7210,7 +7218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>146</v>
       </c>
@@ -7233,7 +7241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>148</v>
       </c>
@@ -7256,7 +7264,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>108</v>
       </c>
@@ -7279,7 +7287,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>23</v>
       </c>
@@ -7302,7 +7310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>55</v>
       </c>
@@ -7325,7 +7333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>25</v>
       </c>
@@ -7348,7 +7356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>27</v>
       </c>
@@ -7371,7 +7379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>150</v>
       </c>
@@ -7394,7 +7402,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1</v>
       </c>
@@ -7402,23 +7410,23 @@
         <v>199</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2</v>
       </c>
-      <c r="B389" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B389" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B390" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3</v>
       </c>
@@ -7426,15 +7434,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
       <c r="B392" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -7442,20 +7450,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B394" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>69</v>
       </c>
@@ -7501,7 +7509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>14</v>
       </c>
@@ -7521,12 +7529,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="B399">
-        <v>2.5700000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C399" t="s">
         <v>31</v>
@@ -7541,12 +7549,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B400">
-        <v>0.19400000000000001</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="C400" t="s">
         <v>31</v>
@@ -7555,18 +7563,18 @@
         <v>7</v>
       </c>
       <c r="F400" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G400" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B401">
-        <v>0.80900000000000005</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C401" t="s">
         <v>31</v>
@@ -7581,58 +7589,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>152</v>
+      </c>
+      <c r="B402">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="C402" t="s">
+        <v>31</v>
+      </c>
+      <c r="E402" t="s">
+        <v>7</v>
+      </c>
+      <c r="F402" t="s">
+        <v>84</v>
+      </c>
+      <c r="G402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
         <v>199</v>
       </c>
-      <c r="B402">
+      <c r="B403">
         <v>1</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C403" t="s">
         <v>164</v>
       </c>
-      <c r="D402" t="s">
-        <v>4</v>
-      </c>
-      <c r="E402" t="s">
-        <v>7</v>
-      </c>
-      <c r="G402" t="s">
+      <c r="D403" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" t="s">
+        <v>7</v>
+      </c>
+      <c r="G403" t="s">
         <v>18</v>
       </c>
-      <c r="H402" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+      <c r="H403" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
         <v>153</v>
       </c>
-      <c r="B403">
+      <c r="B404">
         <v>1.3</v>
-      </c>
-      <c r="C403" t="s">
-        <v>165</v>
-      </c>
-      <c r="D403" t="s">
-        <v>21</v>
-      </c>
-      <c r="E403" t="s">
-        <v>7</v>
-      </c>
-      <c r="G403" t="s">
-        <v>19</v>
-      </c>
-      <c r="H403" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>101</v>
-      </c>
-      <c r="B404">
-        <v>1.42</v>
       </c>
       <c r="C404" t="s">
         <v>165</v>
@@ -7647,229 +7652,229 @@
         <v>19</v>
       </c>
       <c r="H404" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>101</v>
+      </c>
+      <c r="B405">
+        <v>1.42</v>
+      </c>
+      <c r="C405" t="s">
+        <v>165</v>
+      </c>
+      <c r="D405" t="s">
+        <v>21</v>
+      </c>
+      <c r="E405" t="s">
+        <v>7</v>
+      </c>
+      <c r="G405" t="s">
+        <v>19</v>
+      </c>
+      <c r="H405" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>127</v>
       </c>
-      <c r="B405">
+      <c r="B406">
         <v>1.63</v>
       </c>
-      <c r="C405" t="s">
-        <v>165</v>
-      </c>
-      <c r="D405" t="s">
-        <v>4</v>
-      </c>
-      <c r="E405" t="s">
+      <c r="C406" t="s">
+        <v>165</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+      <c r="E406" t="s">
         <v>24</v>
       </c>
-      <c r="G405" t="s">
-        <v>19</v>
-      </c>
-      <c r="H405" t="s">
+      <c r="G406" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
         <v>25</v>
       </c>
-      <c r="B406">
+      <c r="B407">
         <v>1.12E-2</v>
       </c>
-      <c r="C406" t="s">
-        <v>165</v>
-      </c>
-      <c r="D406" t="s">
-        <v>4</v>
-      </c>
-      <c r="E406" t="s">
+      <c r="C407" t="s">
+        <v>165</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4</v>
+      </c>
+      <c r="E407" t="s">
         <v>26</v>
       </c>
-      <c r="G406" t="s">
-        <v>19</v>
-      </c>
-      <c r="H406" t="s">
+      <c r="G407" t="s">
+        <v>19</v>
+      </c>
+      <c r="H407" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>81</v>
       </c>
-      <c r="B407">
+      <c r="B408">
         <v>2.62</v>
       </c>
-      <c r="C407" t="s">
-        <v>165</v>
-      </c>
-      <c r="D407" t="s">
-        <v>4</v>
-      </c>
-      <c r="E407" t="s">
+      <c r="C408" t="s">
+        <v>165</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4</v>
+      </c>
+      <c r="E408" t="s">
         <v>15</v>
       </c>
-      <c r="G407" t="s">
-        <v>19</v>
-      </c>
-      <c r="H407" t="s">
+      <c r="G408" t="s">
+        <v>19</v>
+      </c>
+      <c r="H408" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>27</v>
       </c>
-      <c r="B408">
+      <c r="B409">
         <v>0.27200000000000002</v>
       </c>
-      <c r="C408" t="s">
-        <v>165</v>
-      </c>
-      <c r="D408" t="s">
-        <v>4</v>
-      </c>
-      <c r="E408" t="s">
+      <c r="C409" t="s">
+        <v>165</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4</v>
+      </c>
+      <c r="E409" t="s">
         <v>24</v>
       </c>
-      <c r="G408" t="s">
-        <v>19</v>
-      </c>
-      <c r="H408" t="s">
+      <c r="G409" t="s">
+        <v>19</v>
+      </c>
+      <c r="H409" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>85</v>
       </c>
-      <c r="B409">
+      <c r="B410">
         <v>7.98</v>
       </c>
-      <c r="C409" t="s">
-        <v>165</v>
-      </c>
-      <c r="D409" t="s">
+      <c r="C410" t="s">
+        <v>165</v>
+      </c>
+      <c r="D410" t="s">
         <v>56</v>
       </c>
-      <c r="E409" t="s">
-        <v>7</v>
-      </c>
-      <c r="G409" t="s">
-        <v>19</v>
-      </c>
-      <c r="H409" t="s">
+      <c r="E410" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" t="s">
+        <v>19</v>
+      </c>
+      <c r="H410" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B412" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>2</v>
+      </c>
+      <c r="B413" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>2</v>
-      </c>
-      <c r="B412" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>216</v>
+      </c>
+      <c r="B417" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>9</v>
+      </c>
+      <c r="B419" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419" t="s">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s">
         <v>3</v>
       </c>
-      <c r="B413" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+      <c r="E419" t="s">
+        <v>6</v>
+      </c>
+      <c r="F419" t="s">
+        <v>13</v>
+      </c>
+      <c r="G419" t="s">
         <v>5</v>
       </c>
-      <c r="B414" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>6</v>
-      </c>
-      <c r="B415" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>217</v>
-      </c>
-      <c r="B416" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>9</v>
-      </c>
-      <c r="B418" t="s">
-        <v>10</v>
-      </c>
-      <c r="C418" t="s">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s">
-        <v>3</v>
-      </c>
-      <c r="E418" t="s">
-        <v>6</v>
-      </c>
-      <c r="F418" t="s">
-        <v>13</v>
-      </c>
-      <c r="G418" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>202</v>
-      </c>
-      <c r="B419">
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>201</v>
+      </c>
+      <c r="B420">
         <v>1</v>
-      </c>
-      <c r="C419" t="s">
-        <v>164</v>
-      </c>
-      <c r="D419" t="s">
-        <v>4</v>
-      </c>
-      <c r="E419" t="s">
-        <v>7</v>
-      </c>
-      <c r="F419" t="s">
-        <v>18</v>
-      </c>
-      <c r="G419" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>197</v>
-      </c>
-      <c r="B420">
-        <v>0.13180285392336399</v>
       </c>
       <c r="C420" t="s">
         <v>164</v>
@@ -7881,41 +7886,41 @@
         <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G420" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>197</v>
+      </c>
+      <c r="B421">
+        <v>0.13180285392336399</v>
+      </c>
+      <c r="C421" t="s">
+        <v>164</v>
+      </c>
+      <c r="D421" t="s">
+        <v>4</v>
+      </c>
+      <c r="E421" t="s">
+        <v>7</v>
+      </c>
+      <c r="F421" t="s">
+        <v>19</v>
+      </c>
+      <c r="G421" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
         <v>87</v>
       </c>
-      <c r="B421">
+      <c r="B422">
         <v>0.38852820840736102</v>
-      </c>
-      <c r="C421" t="s">
-        <v>165</v>
-      </c>
-      <c r="D421" t="s">
-        <v>21</v>
-      </c>
-      <c r="E421" t="s">
-        <v>7</v>
-      </c>
-      <c r="F421" t="s">
-        <v>19</v>
-      </c>
-      <c r="G421" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>88</v>
-      </c>
-      <c r="B422">
-        <v>0.47966893766927499</v>
       </c>
       <c r="C422" t="s">
         <v>165</v>
@@ -7930,38 +7935,38 @@
         <v>19</v>
       </c>
       <c r="G422" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>88</v>
+      </c>
+      <c r="B423">
+        <v>0.47966893766927499</v>
+      </c>
+      <c r="C423" t="s">
+        <v>165</v>
+      </c>
+      <c r="D423" t="s">
+        <v>21</v>
+      </c>
+      <c r="E423" t="s">
+        <v>7</v>
+      </c>
+      <c r="F423" t="s">
+        <v>19</v>
+      </c>
+      <c r="G423" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>23</v>
       </c>
-      <c r="B423">
+      <c r="B424">
         <v>0.1</v>
-      </c>
-      <c r="C423" t="s">
-        <v>165</v>
-      </c>
-      <c r="D423" t="s">
-        <v>4</v>
-      </c>
-      <c r="E423" t="s">
-        <v>24</v>
-      </c>
-      <c r="F423" t="s">
-        <v>19</v>
-      </c>
-      <c r="G423" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>27</v>
-      </c>
-      <c r="B424">
-        <v>0.6</v>
       </c>
       <c r="C424" t="s">
         <v>165</v>
@@ -7976,1288 +7981,1289 @@
         <v>19</v>
       </c>
       <c r="G424" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>27</v>
+      </c>
+      <c r="B425">
+        <v>0.6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>165</v>
+      </c>
+      <c r="D425" t="s">
+        <v>4</v>
+      </c>
+      <c r="E425" t="s">
+        <v>24</v>
+      </c>
+      <c r="F425" t="s">
+        <v>19</v>
+      </c>
+      <c r="G425" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" s="1" t="s">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
+      <c r="B427" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
         <v>3</v>
       </c>
-      <c r="B427" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
+      <c r="B428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
         <v>5</v>
       </c>
-      <c r="B428" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
+      <c r="B429" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
         <v>13</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B430" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
         <v>2</v>
       </c>
-      <c r="B430" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
+      <c r="B431" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>6</v>
       </c>
-      <c r="B431" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>217</v>
-      </c>
       <c r="B432" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>216</v>
+      </c>
+      <c r="B433" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
-      <c r="E433" s="1"/>
-      <c r="F433" s="1"/>
-      <c r="G433" s="1"/>
-      <c r="H433" s="1"/>
-      <c r="I433" s="1"/>
-      <c r="J433" s="1"/>
-      <c r="K433" s="1"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
+      <c r="G434" s="1"/>
+      <c r="H434" s="1"/>
+      <c r="I434" s="1"/>
+      <c r="J434" s="1"/>
+      <c r="K434" s="1"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
         <v>9</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B435" t="s">
         <v>10</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C435" t="s">
         <v>11</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D435" t="s">
         <v>3</v>
       </c>
-      <c r="E434" t="s">
+      <c r="E435" t="s">
         <v>6</v>
       </c>
-      <c r="F434" t="s">
+      <c r="F435" t="s">
         <v>13</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G435" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>204</v>
-      </c>
-      <c r="B435">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>203</v>
+      </c>
+      <c r="B436">
         <v>1</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C436" t="s">
         <v>164</v>
       </c>
-      <c r="D435" t="s">
-        <v>4</v>
-      </c>
-      <c r="E435" t="s">
-        <v>7</v>
-      </c>
-      <c r="F435" t="s">
+      <c r="D436" t="s">
+        <v>4</v>
+      </c>
+      <c r="E436" t="s">
+        <v>7</v>
+      </c>
+      <c r="F436" t="s">
         <v>18</v>
       </c>
-      <c r="G435" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
+      <c r="G436" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
         <v>169</v>
       </c>
-      <c r="B436">
+      <c r="B437">
         <f>(1/0.0562)*0.0085612534146254</f>
         <v>0.1523354700111281</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C437" t="s">
         <v>164</v>
       </c>
-      <c r="D436" t="s">
-        <v>4</v>
-      </c>
-      <c r="E436" t="s">
-        <v>7</v>
-      </c>
-      <c r="F436" t="s">
-        <v>19</v>
-      </c>
-      <c r="G436" t="s">
+      <c r="D437" t="s">
+        <v>4</v>
+      </c>
+      <c r="E437" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437" t="s">
+        <v>19</v>
+      </c>
+      <c r="G437" t="s">
         <v>168</v>
       </c>
-      <c r="H436" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
+      <c r="H437" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
         <v>183</v>
       </c>
-      <c r="B437">
+      <c r="B438">
         <f>(1/0.0562)*0.0165620491137194</f>
         <v>0.29469838280639504</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C438" t="s">
         <v>164</v>
       </c>
-      <c r="D437" t="s">
-        <v>4</v>
-      </c>
-      <c r="E437" t="s">
-        <v>7</v>
-      </c>
-      <c r="F437" t="s">
-        <v>19</v>
-      </c>
-      <c r="G437" t="s">
+      <c r="D438" t="s">
+        <v>4</v>
+      </c>
+      <c r="E438" t="s">
+        <v>7</v>
+      </c>
+      <c r="F438" t="s">
+        <v>19</v>
+      </c>
+      <c r="G438" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
         <v>185</v>
       </c>
-      <c r="B438">
+      <c r="B439">
         <f>(1/0.0562)*0.0209977698868578</f>
         <v>0.37362579869853735</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C439" t="s">
         <v>164</v>
       </c>
-      <c r="D438" t="s">
-        <v>4</v>
-      </c>
-      <c r="E438" t="s">
-        <v>7</v>
-      </c>
-      <c r="F438" t="s">
-        <v>19</v>
-      </c>
-      <c r="G438" t="s">
+      <c r="D439" t="s">
+        <v>4</v>
+      </c>
+      <c r="E439" t="s">
+        <v>7</v>
+      </c>
+      <c r="F439" t="s">
+        <v>19</v>
+      </c>
+      <c r="G439" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>202</v>
-      </c>
-      <c r="B439">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>201</v>
+      </c>
+      <c r="B440">
         <f>(1/0.0562)*0.00925252694737966</f>
         <v>0.16463571080746725</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C440" t="s">
         <v>164</v>
       </c>
-      <c r="D439" t="s">
-        <v>4</v>
-      </c>
-      <c r="E439" t="s">
-        <v>7</v>
-      </c>
-      <c r="F439" t="s">
-        <v>19</v>
-      </c>
-      <c r="G439" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
+      <c r="D440" t="s">
+        <v>4</v>
+      </c>
+      <c r="E440" t="s">
+        <v>7</v>
+      </c>
+      <c r="F440" t="s">
+        <v>19</v>
+      </c>
+      <c r="G440" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>86</v>
       </c>
-      <c r="B440">
+      <c r="B441">
         <f>(1/0.0562)*0.000803030859695695</f>
         <v>1.4288805332663612E-2</v>
       </c>
-      <c r="C440" t="s">
-        <v>165</v>
-      </c>
-      <c r="D440" t="s">
+      <c r="C441" t="s">
+        <v>165</v>
+      </c>
+      <c r="D441" t="s">
         <v>21</v>
       </c>
-      <c r="E440" t="s">
-        <v>7</v>
-      </c>
-      <c r="F440" t="s">
-        <v>19</v>
-      </c>
-      <c r="G440" t="s">
+      <c r="E441" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" t="s">
+        <v>19</v>
+      </c>
+      <c r="G441" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
         <v>25</v>
       </c>
-      <c r="B441">
+      <c r="B442">
         <f>(1/0.0562)*0.103774876494967</f>
         <v>1.8465280515118683</v>
       </c>
-      <c r="C441" t="s">
-        <v>165</v>
-      </c>
-      <c r="D441" t="s">
-        <v>4</v>
-      </c>
-      <c r="E441" t="s">
+      <c r="C442" t="s">
+        <v>165</v>
+      </c>
+      <c r="D442" t="s">
+        <v>4</v>
+      </c>
+      <c r="E442" t="s">
         <v>26</v>
       </c>
-      <c r="F441" t="s">
-        <v>19</v>
-      </c>
-      <c r="G441" t="s">
+      <c r="F442" t="s">
+        <v>19</v>
+      </c>
+      <c r="G442" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
         <v>25</v>
       </c>
-      <c r="B442">
+      <c r="B443">
         <f>(1/0.0562)*0.133972324705964</f>
         <v>2.3838491940562991</v>
       </c>
-      <c r="C442" t="s">
-        <v>165</v>
-      </c>
-      <c r="D442" t="s">
-        <v>4</v>
-      </c>
-      <c r="E442" t="s">
+      <c r="C443" t="s">
+        <v>165</v>
+      </c>
+      <c r="D443" t="s">
+        <v>4</v>
+      </c>
+      <c r="E443" t="s">
         <v>26</v>
       </c>
-      <c r="F442" t="s">
-        <v>19</v>
-      </c>
-      <c r="G442" t="s">
+      <c r="F443" t="s">
+        <v>19</v>
+      </c>
+      <c r="G443" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
+      <c r="B445" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
         <v>3</v>
       </c>
-      <c r="B445" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
+      <c r="B446" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
         <v>5</v>
       </c>
-      <c r="B446" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
+      <c r="B447" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
         <v>13</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B448" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>2</v>
       </c>
-      <c r="B448" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+      <c r="B449" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
         <v>6</v>
       </c>
-      <c r="B449" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>217</v>
-      </c>
       <c r="B450" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A451" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>216</v>
+      </c>
+      <c r="B451" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
         <v>9</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B453" t="s">
         <v>10</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C453" t="s">
         <v>11</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D453" t="s">
         <v>3</v>
       </c>
-      <c r="E452" t="s">
+      <c r="E453" t="s">
         <v>6</v>
       </c>
-      <c r="F452" t="s">
+      <c r="F453" t="s">
         <v>13</v>
       </c>
-      <c r="G452" t="s">
+      <c r="G453" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>205</v>
-      </c>
-      <c r="B453">
+    <row r="454" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>204</v>
+      </c>
+      <c r="B454">
         <v>1</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>164</v>
       </c>
-      <c r="D453" t="s">
-        <v>4</v>
-      </c>
-      <c r="E453" t="s">
-        <v>7</v>
-      </c>
-      <c r="F453" t="s">
+      <c r="D454" t="s">
+        <v>4</v>
+      </c>
+      <c r="E454" t="s">
+        <v>7</v>
+      </c>
+      <c r="F454" t="s">
         <v>18</v>
       </c>
-      <c r="G453" t="s">
-        <v>227</v>
-      </c>
-      <c r="H453"/>
-      <c r="I453"/>
-      <c r="J453"/>
-      <c r="K453"/>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+      <c r="G454" t="s">
+        <v>226</v>
+      </c>
+      <c r="H454"/>
+      <c r="I454"/>
+      <c r="J454"/>
+      <c r="K454"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
         <v>169</v>
       </c>
-      <c r="B454">
+      <c r="B455">
         <f>(1/0.053177)*0.0085612534146254</f>
         <v>0.1609954193471877</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C455" t="s">
         <v>164</v>
       </c>
-      <c r="D454" t="s">
-        <v>4</v>
-      </c>
-      <c r="E454" t="s">
-        <v>7</v>
-      </c>
-      <c r="F454" t="s">
-        <v>19</v>
-      </c>
-      <c r="G454" t="s">
+      <c r="D455" t="s">
+        <v>4</v>
+      </c>
+      <c r="E455" t="s">
+        <v>7</v>
+      </c>
+      <c r="F455" t="s">
+        <v>19</v>
+      </c>
+      <c r="G455" t="s">
         <v>168</v>
       </c>
-      <c r="H454" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
+      <c r="H455" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
         <v>172</v>
       </c>
-      <c r="B455">
+      <c r="B456">
         <f>(1/0.053177)*0.0130181682473286</f>
         <v>0.24480824881675539</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C456" t="s">
         <v>164</v>
       </c>
-      <c r="D455" t="s">
-        <v>4</v>
-      </c>
-      <c r="E455" t="s">
-        <v>7</v>
-      </c>
-      <c r="F455" t="s">
-        <v>19</v>
-      </c>
-      <c r="G455" t="s">
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+      <c r="E456" t="s">
+        <v>7</v>
+      </c>
+      <c r="F456" t="s">
+        <v>19</v>
+      </c>
+      <c r="G456" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
         <v>188</v>
       </c>
-      <c r="B456">
+      <c r="B457">
         <f>(1/0.053177)*0.0216120622410464</f>
         <v>0.40641747825274838</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C457" t="s">
         <v>164</v>
       </c>
-      <c r="D456" t="s">
-        <v>4</v>
-      </c>
-      <c r="E456" t="s">
-        <v>7</v>
-      </c>
-      <c r="F456" t="s">
-        <v>19</v>
-      </c>
-      <c r="G456" t="s">
+      <c r="D457" t="s">
+        <v>4</v>
+      </c>
+      <c r="E457" t="s">
+        <v>7</v>
+      </c>
+      <c r="F457" t="s">
+        <v>19</v>
+      </c>
+      <c r="G457" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>202</v>
-      </c>
-      <c r="B457">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>201</v>
+      </c>
+      <c r="B458">
         <f>(1/0.053177)*0.00934397682507009</f>
         <v>0.17571462897625084</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C458" t="s">
         <v>164</v>
       </c>
-      <c r="D457" t="s">
-        <v>4</v>
-      </c>
-      <c r="E457" t="s">
-        <v>7</v>
-      </c>
-      <c r="F457" t="s">
-        <v>19</v>
-      </c>
-      <c r="G457" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+      <c r="D458" t="s">
+        <v>4</v>
+      </c>
+      <c r="E458" t="s">
+        <v>7</v>
+      </c>
+      <c r="F458" t="s">
+        <v>19</v>
+      </c>
+      <c r="G458" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>86</v>
       </c>
-      <c r="B458">
+      <c r="B459">
         <f>(1/0.053177)*0.000642010008010976</f>
         <v>1.2073076856742127E-2</v>
       </c>
-      <c r="C458" t="s">
-        <v>165</v>
-      </c>
-      <c r="D458" t="s">
+      <c r="C459" t="s">
+        <v>165</v>
+      </c>
+      <c r="D459" t="s">
         <v>21</v>
       </c>
-      <c r="E458" t="s">
-        <v>7</v>
-      </c>
-      <c r="F458" t="s">
-        <v>19</v>
-      </c>
-      <c r="G458" t="s">
+      <c r="E459" t="s">
+        <v>7</v>
+      </c>
+      <c r="F459" t="s">
+        <v>19</v>
+      </c>
+      <c r="G459" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>25</v>
       </c>
-      <c r="B459">
+      <c r="B460">
         <f>(1/0.053177)*0.104800563836034</f>
         <v>1.9707874426168082</v>
       </c>
-      <c r="C459" t="s">
-        <v>165</v>
-      </c>
-      <c r="D459" t="s">
-        <v>4</v>
-      </c>
-      <c r="E459" t="s">
+      <c r="C460" t="s">
+        <v>165</v>
+      </c>
+      <c r="D460" t="s">
+        <v>4</v>
+      </c>
+      <c r="E460" t="s">
         <v>26</v>
       </c>
-      <c r="F459" t="s">
-        <v>19</v>
-      </c>
-      <c r="G459" t="s">
+      <c r="F460" t="s">
+        <v>19</v>
+      </c>
+      <c r="G460" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
         <v>25</v>
       </c>
-      <c r="B460">
+      <c r="B461">
         <f>(1/0.053177)*0.125938218719691</f>
         <v>2.3682836323916541</v>
       </c>
-      <c r="C460" t="s">
-        <v>165</v>
-      </c>
-      <c r="D460" t="s">
-        <v>4</v>
-      </c>
-      <c r="E460" t="s">
+      <c r="C461" t="s">
+        <v>165</v>
+      </c>
+      <c r="D461" t="s">
+        <v>4</v>
+      </c>
+      <c r="E461" t="s">
         <v>26</v>
       </c>
-      <c r="F460" t="s">
-        <v>19</v>
-      </c>
-      <c r="G460" t="s">
+      <c r="F461" t="s">
+        <v>19</v>
+      </c>
+      <c r="G461" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A462" s="1" t="s">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+      <c r="B463" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
         <v>3</v>
       </c>
-      <c r="B463" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+      <c r="B464" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
         <v>5</v>
       </c>
-      <c r="B464" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+      <c r="B465" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
         <v>13</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B466" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
         <v>2</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B467" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>6</v>
+      </c>
+      <c r="B468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>216</v>
+      </c>
+      <c r="B469" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+      <c r="H470" s="1"/>
+      <c r="I470" s="1"/>
+      <c r="J470" s="1"/>
+      <c r="K470" s="1"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>9</v>
+      </c>
+      <c r="B471" t="s">
+        <v>10</v>
+      </c>
+      <c r="C471" t="s">
+        <v>11</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3</v>
+      </c>
+      <c r="E471" t="s">
+        <v>6</v>
+      </c>
+      <c r="F471" t="s">
+        <v>13</v>
+      </c>
+      <c r="G471" t="s">
+        <v>5</v>
+      </c>
+      <c r="H471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>205</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472" t="s">
+        <v>164</v>
+      </c>
+      <c r="D472" t="s">
+        <v>4</v>
+      </c>
+      <c r="E472" t="s">
+        <v>7</v>
+      </c>
+      <c r="F472" t="s">
+        <v>18</v>
+      </c>
+      <c r="G472" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>6</v>
-      </c>
-      <c r="B467" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>217</v>
-      </c>
-      <c r="B468" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A469" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B469" s="1"/>
-      <c r="C469" s="1"/>
-      <c r="D469" s="1"/>
-      <c r="E469" s="1"/>
-      <c r="F469" s="1"/>
-      <c r="G469" s="1"/>
-      <c r="H469" s="1"/>
-      <c r="I469" s="1"/>
-      <c r="J469" s="1"/>
-      <c r="K469" s="1"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>9</v>
-      </c>
-      <c r="B470" t="s">
-        <v>10</v>
-      </c>
-      <c r="C470" t="s">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s">
-        <v>3</v>
-      </c>
-      <c r="E470" t="s">
-        <v>6</v>
-      </c>
-      <c r="F470" t="s">
-        <v>13</v>
-      </c>
-      <c r="G470" t="s">
-        <v>5</v>
-      </c>
-      <c r="H470" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>206</v>
-      </c>
-      <c r="B471">
-        <v>1</v>
-      </c>
-      <c r="C471" t="s">
-        <v>164</v>
-      </c>
-      <c r="D471" t="s">
-        <v>4</v>
-      </c>
-      <c r="E471" t="s">
-        <v>7</v>
-      </c>
-      <c r="F471" t="s">
-        <v>18</v>
-      </c>
-      <c r="G471" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
         <v>169</v>
       </c>
-      <c r="B472">
+      <c r="B473">
         <f>(1/0.045)*0.0085612534146254</f>
         <v>0.19025007588056442</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C473" t="s">
         <v>164</v>
       </c>
-      <c r="D472" t="s">
-        <v>4</v>
-      </c>
-      <c r="E472" t="s">
-        <v>7</v>
-      </c>
-      <c r="F472" t="s">
-        <v>19</v>
-      </c>
-      <c r="G472" t="s">
+      <c r="D473" t="s">
+        <v>4</v>
+      </c>
+      <c r="E473" t="s">
+        <v>7</v>
+      </c>
+      <c r="F473" t="s">
+        <v>19</v>
+      </c>
+      <c r="G473" t="s">
         <v>168</v>
       </c>
-      <c r="H472" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+      <c r="H473" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>192</v>
       </c>
-      <c r="B473">
+      <c r="B474">
         <f>(1/0.045)*0.0109585812086088</f>
         <v>0.24352402685797334</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C474" t="s">
         <v>164</v>
       </c>
-      <c r="D473" t="s">
-        <v>4</v>
-      </c>
-      <c r="E473" t="s">
-        <v>7</v>
-      </c>
-      <c r="F473" t="s">
-        <v>19</v>
-      </c>
-      <c r="G473" t="s">
+      <c r="D474" t="s">
+        <v>4</v>
+      </c>
+      <c r="E474" t="s">
+        <v>7</v>
+      </c>
+      <c r="F474" t="s">
+        <v>19</v>
+      </c>
+      <c r="G474" t="s">
         <v>193</v>
       </c>
-      <c r="H473" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
+      <c r="H474" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>195</v>
       </c>
-      <c r="B474">
+      <c r="B475">
         <f>(1/0.045)*0.0154881832669088</f>
         <v>0.34418185037575111</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C475" t="s">
         <v>164</v>
       </c>
-      <c r="D474" t="s">
-        <v>4</v>
-      </c>
-      <c r="E474" t="s">
-        <v>7</v>
-      </c>
-      <c r="F474" t="s">
-        <v>19</v>
-      </c>
-      <c r="G474" t="s">
+      <c r="D475" t="s">
+        <v>4</v>
+      </c>
+      <c r="E475" t="s">
+        <v>7</v>
+      </c>
+      <c r="F475" t="s">
+        <v>19</v>
+      </c>
+      <c r="G475" t="s">
         <v>196</v>
       </c>
-      <c r="H474" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
-        <v>202</v>
-      </c>
-      <c r="B475">
+      <c r="H475" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>201</v>
+      </c>
+      <c r="B476">
         <f>(1/0.045)*0.00937223587605556</f>
         <v>0.20827190835679019</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C476" t="s">
         <v>164</v>
       </c>
-      <c r="D475" t="s">
-        <v>4</v>
-      </c>
-      <c r="E475" t="s">
-        <v>7</v>
-      </c>
-      <c r="F475" t="s">
-        <v>19</v>
-      </c>
-      <c r="G475" t="s">
-        <v>203</v>
-      </c>
-      <c r="H475" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
+      <c r="D476" t="s">
+        <v>4</v>
+      </c>
+      <c r="E476" t="s">
+        <v>7</v>
+      </c>
+      <c r="F476" t="s">
+        <v>19</v>
+      </c>
+      <c r="G476" t="s">
+        <v>202</v>
+      </c>
+      <c r="H476" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>86</v>
       </c>
-      <c r="B476">
+      <c r="B477">
         <f>(1/0.045)*0.000592324289244388</f>
         <v>1.3162761983208621E-2</v>
       </c>
-      <c r="C476" t="s">
-        <v>165</v>
-      </c>
-      <c r="D476" t="s">
+      <c r="C477" t="s">
+        <v>165</v>
+      </c>
+      <c r="D477" t="s">
         <v>21</v>
       </c>
-      <c r="E476" t="s">
-        <v>7</v>
-      </c>
-      <c r="F476" t="s">
-        <v>19</v>
-      </c>
-      <c r="G476" t="s">
+      <c r="E477" t="s">
+        <v>7</v>
+      </c>
+      <c r="F477" t="s">
+        <v>19</v>
+      </c>
+      <c r="G477" t="s">
         <v>163</v>
       </c>
-      <c r="H476" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+      <c r="H477" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
         <v>25</v>
       </c>
-      <c r="B477">
+      <c r="B478">
         <f>(1/0.045)*0.105117512875205</f>
         <v>2.3359447305601111</v>
       </c>
-      <c r="C477" t="s">
-        <v>165</v>
-      </c>
-      <c r="D477" t="s">
-        <v>4</v>
-      </c>
-      <c r="E477" t="s">
+      <c r="C478" t="s">
+        <v>165</v>
+      </c>
+      <c r="D478" t="s">
+        <v>4</v>
+      </c>
+      <c r="E478" t="s">
         <v>26</v>
       </c>
-      <c r="F477" t="s">
-        <v>19</v>
-      </c>
-      <c r="G477" t="s">
+      <c r="F478" t="s">
+        <v>19</v>
+      </c>
+      <c r="G478" t="s">
         <v>62</v>
       </c>
-      <c r="H477" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+      <c r="H478" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
         <v>25</v>
       </c>
-      <c r="B478">
+      <c r="B479">
         <f>(1/0.045)*0.0936148404555879</f>
         <v>2.0803297879019533</v>
       </c>
-      <c r="C478" t="s">
-        <v>165</v>
-      </c>
-      <c r="D478" t="s">
-        <v>4</v>
-      </c>
-      <c r="E478" t="s">
+      <c r="C479" t="s">
+        <v>165</v>
+      </c>
+      <c r="D479" t="s">
+        <v>4</v>
+      </c>
+      <c r="E479" t="s">
         <v>26</v>
       </c>
-      <c r="F478" t="s">
-        <v>19</v>
-      </c>
-      <c r="G478" t="s">
+      <c r="F479" t="s">
+        <v>19</v>
+      </c>
+      <c r="G479" t="s">
         <v>62</v>
       </c>
-      <c r="H478" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="480" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A480" s="2" t="s">
+      <c r="H479" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B481" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B482" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A481" s="3" t="s">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>3</v>
+      </c>
+      <c r="B483" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>230</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>6</v>
+      </c>
+      <c r="B486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>216</v>
+      </c>
+      <c r="B487" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" t="s">
+        <v>10</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" t="s">
+        <v>12</v>
+      </c>
+      <c r="E489" t="s">
+        <v>3</v>
+      </c>
+      <c r="F489" t="s">
+        <v>13</v>
+      </c>
+      <c r="G489" t="s">
+        <v>5</v>
+      </c>
+      <c r="H489" t="s">
         <v>2</v>
       </c>
-      <c r="B481" s="3" t="s">
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>238</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490" t="s">
+        <v>7</v>
+      </c>
+      <c r="E490" t="s">
+        <v>21</v>
+      </c>
+      <c r="F490" t="s">
+        <v>18</v>
+      </c>
+      <c r="G490" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>3</v>
-      </c>
-      <c r="B482" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
-        <v>231</v>
-      </c>
-      <c r="B483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>5</v>
-      </c>
-      <c r="B484" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
-        <v>6</v>
-      </c>
-      <c r="B485" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>217</v>
-      </c>
-      <c r="B486" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A487" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
-        <v>9</v>
-      </c>
-      <c r="B488" t="s">
-        <v>10</v>
-      </c>
-      <c r="C488" t="s">
-        <v>6</v>
-      </c>
-      <c r="D488" t="s">
-        <v>12</v>
-      </c>
-      <c r="E488" t="s">
-        <v>3</v>
-      </c>
-      <c r="F488" t="s">
-        <v>13</v>
-      </c>
-      <c r="G488" t="s">
-        <v>5</v>
-      </c>
-      <c r="H488" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>239</v>
-      </c>
-      <c r="B489">
-        <v>1</v>
-      </c>
-      <c r="C489" t="s">
-        <v>7</v>
-      </c>
-      <c r="E489" t="s">
-        <v>21</v>
-      </c>
-      <c r="F489" t="s">
-        <v>18</v>
-      </c>
-      <c r="G489" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>204</v>
-      </c>
-      <c r="B490" s="4">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>203</v>
+      </c>
+      <c r="B491" s="4">
         <f>408*0.046/24.971</f>
         <v>0.75159184654198874</v>
       </c>
-      <c r="C490" t="s">
-        <v>7</v>
-      </c>
-      <c r="E490" t="s">
-        <v>4</v>
-      </c>
-      <c r="F490" t="s">
-        <v>19</v>
-      </c>
-      <c r="G490" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>240</v>
-      </c>
-      <c r="B491" s="4">
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" t="s">
+        <v>4</v>
+      </c>
+      <c r="F491" t="s">
+        <v>19</v>
+      </c>
+      <c r="G491" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>239</v>
+      </c>
+      <c r="B492" s="4">
         <f>0.275/24.971</f>
         <v>1.1012774818789798E-2</v>
       </c>
-      <c r="C491" t="s">
-        <v>7</v>
-      </c>
-      <c r="E491" t="s">
+      <c r="C492" t="s">
+        <v>7</v>
+      </c>
+      <c r="E492" t="s">
         <v>21</v>
       </c>
-      <c r="F491" t="s">
-        <v>19</v>
-      </c>
-      <c r="G491" t="s">
+      <c r="F492" t="s">
+        <v>19</v>
+      </c>
+      <c r="G492" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>242</v>
-      </c>
-      <c r="B492" s="4">
+      <c r="B493" s="4">
         <f>0.593/24.971</f>
         <v>2.3747547154699448E-2</v>
       </c>
-      <c r="C492" t="s">
-        <v>7</v>
-      </c>
-      <c r="E492" t="s">
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" t="s">
         <v>21</v>
       </c>
-      <c r="F492" t="s">
-        <v>19</v>
-      </c>
-      <c r="G492" t="s">
+      <c r="F493" t="s">
+        <v>19</v>
+      </c>
+      <c r="G493" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B493" s="5">
+      <c r="B494" s="5">
         <f>0.085/24.971</f>
         <v>3.4039485803532099E-3</v>
       </c>
-      <c r="C493" t="s">
-        <v>7</v>
-      </c>
-      <c r="E493" t="s">
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+      <c r="E494" t="s">
         <v>21</v>
       </c>
-      <c r="F493" t="s">
-        <v>19</v>
-      </c>
-      <c r="G493" t="s">
+      <c r="F494" t="s">
+        <v>19</v>
+      </c>
+      <c r="G494" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
-        <v>246</v>
-      </c>
-      <c r="B494" s="6">
+      <c r="B495" s="6">
         <f>2.75/24.971</f>
         <v>0.11012774818789796</v>
       </c>
-      <c r="C494" t="s">
-        <v>7</v>
-      </c>
-      <c r="E494" t="s">
+      <c r="C495" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" t="s">
         <v>21</v>
       </c>
-      <c r="F494" t="s">
-        <v>19</v>
-      </c>
-      <c r="G494" t="s">
+      <c r="F495" t="s">
+        <v>19</v>
+      </c>
+      <c r="G495" t="s">
+        <v>246</v>
+      </c>
+      <c r="I495" s="7"/>
+      <c r="J495" s="8"/>
+      <c r="K495" s="8"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>247</v>
       </c>
-      <c r="I494" s="7"/>
-      <c r="J494" s="8"/>
-      <c r="K494" s="8"/>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>248</v>
-      </c>
-      <c r="B495" s="6">
+      <c r="B496" s="6">
         <f>2.5/24.971</f>
         <v>0.10011613471627087</v>
       </c>
-      <c r="C495" t="s">
-        <v>7</v>
-      </c>
-      <c r="E495" t="s">
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" t="s">
         <v>21</v>
       </c>
-      <c r="F495" t="s">
-        <v>19</v>
-      </c>
-      <c r="G495" t="s">
+      <c r="F496" t="s">
+        <v>19</v>
+      </c>
+      <c r="G496" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
-        <v>249</v>
-      </c>
-      <c r="B496" s="6">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>248</v>
+      </c>
+      <c r="B497" s="6">
         <f>2.75/24.971</f>
         <v>0.11012774818789796</v>
       </c>
-      <c r="C496" t="s">
-        <v>7</v>
-      </c>
-      <c r="E496" t="s">
+      <c r="C497" t="s">
+        <v>7</v>
+      </c>
+      <c r="E497" t="s">
         <v>21</v>
       </c>
-      <c r="F496" t="s">
-        <v>19</v>
-      </c>
-      <c r="G496" t="s">
+      <c r="F497" t="s">
+        <v>19</v>
+      </c>
+      <c r="G497" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
-        <v>251</v>
-      </c>
-      <c r="B497" s="9">
+      <c r="B498" s="9">
         <f>2.5/24.971</f>
         <v>0.10011613471627087</v>
       </c>
-      <c r="C497" t="s">
-        <v>7</v>
-      </c>
-      <c r="E497" t="s">
+      <c r="C498" t="s">
+        <v>7</v>
+      </c>
+      <c r="E498" t="s">
         <v>21</v>
       </c>
-      <c r="F497" t="s">
-        <v>19</v>
-      </c>
-      <c r="G497" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B498" s="10"/>
-    </row>
-    <row r="499" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A499" s="2" t="s">
+      <c r="F498" t="s">
+        <v>19</v>
+      </c>
+      <c r="G498" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B499" s="10"/>
+    </row>
+    <row r="500" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B500" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>2</v>
+      </c>
+      <c r="B501" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>3</v>
+      </c>
+      <c r="B502" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>230</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>6</v>
+      </c>
+      <c r="B505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>216</v>
+      </c>
+      <c r="B506" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H508" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B500" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>3</v>
-      </c>
-      <c r="B501" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
-        <v>231</v>
-      </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>5</v>
-      </c>
-      <c r="B503" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>6</v>
-      </c>
-      <c r="B504" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>217</v>
-      </c>
-      <c r="B505" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A506" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B506" s="1"/>
-      <c r="C506" s="1"/>
-      <c r="D506" s="1"/>
-      <c r="E506" s="1"/>
-      <c r="F506" s="1"/>
-      <c r="G506" s="1"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A507" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E507" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G507" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H507" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A508" s="3" t="str">
-        <f>B499</f>
+    </row>
+    <row r="509" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="str">
+        <f>B500</f>
         <v>market for battery, Sodium-ion, SiB</v>
-      </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-      <c r="C508" t="s">
-        <v>7</v>
-      </c>
-      <c r="E508" t="str">
-        <f>B501</f>
-        <v>GLO</v>
-      </c>
-      <c r="F508" t="s">
-        <v>18</v>
-      </c>
-      <c r="G508" t="str">
-        <f>B503</f>
-        <v>battery, SiB</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A509" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -9265,25 +9271,27 @@
       <c r="C509" t="s">
         <v>7</v>
       </c>
-      <c r="E509" t="s">
-        <v>21</v>
+      <c r="E509" t="str">
+        <f>B502</f>
+        <v>GLO</v>
       </c>
       <c r="F509" t="s">
-        <v>19</v>
-      </c>
-      <c r="G509" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="G509" t="str">
+        <f>B504</f>
+        <v>battery, SiB</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B510">
-        <v>0.30910727700000001</v>
+        <v>1</v>
       </c>
       <c r="C510" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E510" t="s">
         <v>21</v>
@@ -9292,15 +9300,15 @@
         <v>19</v>
       </c>
       <c r="G510" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="B511">
-        <v>2.4627409999999999E-2</v>
+        <v>0.30910727700000001</v>
       </c>
       <c r="C511" t="s">
         <v>24</v>
@@ -9312,15 +9320,15 @@
         <v>19</v>
       </c>
       <c r="G511" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B512">
-        <v>0.20877976500000001</v>
+        <v>2.4627409999999999E-2</v>
       </c>
       <c r="C512" t="s">
         <v>24</v>
@@ -9332,15 +9340,15 @@
         <v>19</v>
       </c>
       <c r="G512" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B513">
-        <v>0.59901584900000004</v>
+        <v>0.20877976500000001</v>
       </c>
       <c r="C513" t="s">
         <v>24</v>
@@ -9352,14 +9360,34 @@
         <v>19</v>
       </c>
       <c r="G513" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A514" s="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>234</v>
+      </c>
+      <c r="B514">
+        <v>0.59901584900000004</v>
+      </c>
+      <c r="C514" t="s">
+        <v>24</v>
+      </c>
+      <c r="E514" t="s">
+        <v>21</v>
+      </c>
+      <c r="F514" t="s">
+        <v>19</v>
+      </c>
+      <c r="G514" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A515" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K478" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K479" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18974D2D-D0D8-4C99-B853-578B8B4A6F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB1C9EC-68A4-4419-BFEE-3497B1615209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sodium-ion batteries" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sodium-ion batteries'!$A$1:$K$479</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sodium-ion batteries'!$A$1:$K$480</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="264">
   <si>
     <t>Database</t>
   </si>
@@ -864,6 +864,15 @@
   </si>
   <si>
     <t>nickel carbonate, anhydrous, at plant</t>
+  </si>
+  <si>
+    <t>Original inventory assumed no further wastewater treatment</t>
+  </si>
+  <si>
+    <t>Original inventory: 0.0127kg | This value was modified to align with industrial wastewater regulations</t>
+  </si>
+  <si>
+    <t>Original inventory: 0.013kg | This value was modified to align with industrial wastewater regulations</t>
   </si>
 </sst>
 </file>
@@ -937,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -950,6 +959,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K515"/>
+  <dimension ref="A1:K516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B526" sqref="B526"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G404" sqref="G404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7356,7 +7366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>27</v>
       </c>
@@ -7379,7 +7389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>150</v>
       </c>
@@ -7402,7 +7412,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1</v>
       </c>
@@ -7410,7 +7420,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2</v>
       </c>
@@ -7418,7 +7428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>227</v>
       </c>
@@ -7426,7 +7436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3</v>
       </c>
@@ -7434,7 +7444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7442,7 +7452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -7450,7 +7460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>216</v>
       </c>
@@ -7458,12 +7468,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="395" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -7488,8 +7498,12 @@
       <c r="H396" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I396" t="s">
+        <v>2</v>
+      </c>
+      <c r="K396" s="12"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>69</v>
       </c>
@@ -7509,7 +7523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>14</v>
       </c>
@@ -7529,12 +7543,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>259</v>
       </c>
-      <c r="B399">
-        <v>1.2999999999999999E-2</v>
+      <c r="B399" s="12">
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="C399" t="s">
         <v>31</v>
@@ -7548,13 +7562,16 @@
       <c r="G399" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I399" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>167</v>
       </c>
-      <c r="B400">
-        <v>1.2699999999999999E-2</v>
+      <c r="B400" s="12">
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="C400" t="s">
         <v>31</v>
@@ -7568,8 +7585,11 @@
       <c r="G400" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I400" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>151</v>
       </c>
@@ -7589,7 +7609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>152</v>
       </c>
@@ -7609,7 +7629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>199</v>
       </c>
@@ -7632,7 +7652,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>153</v>
       </c>
@@ -7655,7 +7675,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>101</v>
       </c>
@@ -7678,7 +7698,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>127</v>
       </c>
@@ -7701,7 +7721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>25</v>
       </c>
@@ -7724,7 +7744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>81</v>
       </c>
@@ -7747,7 +7767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -7770,7 +7790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>85</v>
       </c>
@@ -7793,111 +7813,115 @@
         <v>66</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>55</v>
+      </c>
+      <c r="B411">
+        <f>-B410/1000</f>
+        <v>-7.980000000000001E-3</v>
+      </c>
+      <c r="C411" t="s">
+        <v>165</v>
+      </c>
+      <c r="D411" t="s">
+        <v>56</v>
+      </c>
+      <c r="E411" t="s">
+        <v>57</v>
+      </c>
+      <c r="G411" t="s">
+        <v>19</v>
+      </c>
+      <c r="H411" t="s">
+        <v>58</v>
+      </c>
+      <c r="I411" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="B413" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>2</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B414" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>3</v>
       </c>
-      <c r="B414" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="B415" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
         <v>5</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B416" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>6</v>
-      </c>
-      <c r="B416" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
         <v>216</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="418" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+    <row r="419" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>9</v>
-      </c>
-      <c r="B419" t="s">
-        <v>10</v>
-      </c>
-      <c r="C419" t="s">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s">
-        <v>3</v>
-      </c>
-      <c r="E419" t="s">
-        <v>6</v>
-      </c>
-      <c r="F419" t="s">
-        <v>13</v>
-      </c>
-      <c r="G419" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>201</v>
-      </c>
-      <c r="B420">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B420" t="s">
+        <v>10</v>
       </c>
       <c r="C420" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="D420" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E420" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F420" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G420" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B421">
-        <v>0.13180285392336399</v>
+        <v>1</v>
       </c>
       <c r="C421" t="s">
         <v>164</v>
@@ -7909,24 +7933,24 @@
         <v>7</v>
       </c>
       <c r="F421" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G421" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="B422">
-        <v>0.38852820840736102</v>
+        <v>0.13180285392336399</v>
       </c>
       <c r="C422" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D422" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E422" t="s">
         <v>7</v>
@@ -7935,15 +7959,15 @@
         <v>19</v>
       </c>
       <c r="G422" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B423">
-        <v>0.47966893766927499</v>
+        <v>0.38852820840736102</v>
       </c>
       <c r="C423" t="s">
         <v>165</v>
@@ -7958,38 +7982,38 @@
         <v>19</v>
       </c>
       <c r="G423" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B424">
-        <v>0.1</v>
+        <v>0.47966893766927499</v>
       </c>
       <c r="C424" t="s">
         <v>165</v>
       </c>
       <c r="D424" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E424" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F424" t="s">
         <v>19</v>
       </c>
       <c r="G424" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B425">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C425" t="s">
         <v>165</v>
@@ -8004,271 +8028,270 @@
         <v>19</v>
       </c>
       <c r="G425" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>27</v>
+      </c>
+      <c r="B426">
+        <v>0.6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>165</v>
+      </c>
+      <c r="D426" t="s">
+        <v>4</v>
+      </c>
+      <c r="E426" t="s">
+        <v>24</v>
+      </c>
+      <c r="F426" t="s">
+        <v>19</v>
+      </c>
+      <c r="G426" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="B428" s="1" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>3</v>
-      </c>
-      <c r="B428" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B429" t="s">
-        <v>226</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B430" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B431" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B432" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
         <v>216</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B434" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
-      <c r="D434" s="1"/>
-      <c r="E434" s="1"/>
-      <c r="F434" s="1"/>
-      <c r="G434" s="1"/>
-      <c r="H434" s="1"/>
-      <c r="I434" s="1"/>
-      <c r="J434" s="1"/>
-      <c r="K434" s="1"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>9</v>
-      </c>
-      <c r="B435" t="s">
-        <v>10</v>
-      </c>
-      <c r="C435" t="s">
-        <v>11</v>
-      </c>
-      <c r="D435" t="s">
-        <v>3</v>
-      </c>
-      <c r="E435" t="s">
-        <v>6</v>
-      </c>
-      <c r="F435" t="s">
-        <v>13</v>
-      </c>
-      <c r="G435" t="s">
-        <v>5</v>
-      </c>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+      <c r="F435" s="1"/>
+      <c r="G435" s="1"/>
+      <c r="H435" s="1"/>
+      <c r="I435" s="1"/>
+      <c r="J435" s="1"/>
+      <c r="K435" s="1"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>203</v>
-      </c>
-      <c r="B436">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B436" t="s">
+        <v>10</v>
       </c>
       <c r="C436" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="D436" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E436" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F436" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G436" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>203</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437" t="s">
+        <v>164</v>
+      </c>
+      <c r="D437" t="s">
+        <v>4</v>
+      </c>
+      <c r="E437" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437" t="s">
+        <v>18</v>
+      </c>
+      <c r="G437" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
         <v>169</v>
       </c>
-      <c r="B437">
+      <c r="B438">
         <f>(1/0.0562)*0.0085612534146254</f>
         <v>0.1523354700111281</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C438" t="s">
         <v>164</v>
       </c>
-      <c r="D437" t="s">
-        <v>4</v>
-      </c>
-      <c r="E437" t="s">
-        <v>7</v>
-      </c>
-      <c r="F437" t="s">
-        <v>19</v>
-      </c>
-      <c r="G437" t="s">
+      <c r="D438" t="s">
+        <v>4</v>
+      </c>
+      <c r="E438" t="s">
+        <v>7</v>
+      </c>
+      <c r="F438" t="s">
+        <v>19</v>
+      </c>
+      <c r="G438" t="s">
         <v>168</v>
       </c>
-      <c r="H437" t="s">
+      <c r="H438" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
         <v>183</v>
       </c>
-      <c r="B438">
+      <c r="B439">
         <f>(1/0.0562)*0.0165620491137194</f>
         <v>0.29469838280639504</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C439" t="s">
         <v>164</v>
       </c>
-      <c r="D438" t="s">
-        <v>4</v>
-      </c>
-      <c r="E438" t="s">
-        <v>7</v>
-      </c>
-      <c r="F438" t="s">
-        <v>19</v>
-      </c>
-      <c r="G438" t="s">
+      <c r="D439" t="s">
+        <v>4</v>
+      </c>
+      <c r="E439" t="s">
+        <v>7</v>
+      </c>
+      <c r="F439" t="s">
+        <v>19</v>
+      </c>
+      <c r="G439" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
         <v>185</v>
       </c>
-      <c r="B439">
+      <c r="B440">
         <f>(1/0.0562)*0.0209977698868578</f>
         <v>0.37362579869853735</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C440" t="s">
         <v>164</v>
       </c>
-      <c r="D439" t="s">
-        <v>4</v>
-      </c>
-      <c r="E439" t="s">
-        <v>7</v>
-      </c>
-      <c r="F439" t="s">
-        <v>19</v>
-      </c>
-      <c r="G439" t="s">
+      <c r="D440" t="s">
+        <v>4</v>
+      </c>
+      <c r="E440" t="s">
+        <v>7</v>
+      </c>
+      <c r="F440" t="s">
+        <v>19</v>
+      </c>
+      <c r="G440" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>201</v>
       </c>
-      <c r="B440">
+      <c r="B441">
         <f>(1/0.0562)*0.00925252694737966</f>
         <v>0.16463571080746725</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C441" t="s">
         <v>164</v>
       </c>
-      <c r="D440" t="s">
-        <v>4</v>
-      </c>
-      <c r="E440" t="s">
-        <v>7</v>
-      </c>
-      <c r="F440" t="s">
-        <v>19</v>
-      </c>
-      <c r="G440" t="s">
+      <c r="D441" t="s">
+        <v>4</v>
+      </c>
+      <c r="E441" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" t="s">
+        <v>19</v>
+      </c>
+      <c r="G441" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
         <v>86</v>
       </c>
-      <c r="B441">
+      <c r="B442">
         <f>(1/0.0562)*0.000803030859695695</f>
         <v>1.4288805332663612E-2</v>
       </c>
-      <c r="C441" t="s">
-        <v>165</v>
-      </c>
-      <c r="D441" t="s">
+      <c r="C442" t="s">
+        <v>165</v>
+      </c>
+      <c r="D442" t="s">
         <v>21</v>
       </c>
-      <c r="E441" t="s">
-        <v>7</v>
-      </c>
-      <c r="F441" t="s">
-        <v>19</v>
-      </c>
-      <c r="G441" t="s">
+      <c r="E442" t="s">
+        <v>7</v>
+      </c>
+      <c r="F442" t="s">
+        <v>19</v>
+      </c>
+      <c r="G442" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>25</v>
-      </c>
-      <c r="B442">
-        <f>(1/0.0562)*0.103774876494967</f>
-        <v>1.8465280515118683</v>
-      </c>
-      <c r="C442" t="s">
-        <v>165</v>
-      </c>
-      <c r="D442" t="s">
-        <v>4</v>
-      </c>
-      <c r="E442" t="s">
-        <v>26</v>
-      </c>
-      <c r="F442" t="s">
-        <v>19</v>
-      </c>
-      <c r="G442" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
@@ -8276,281 +8299,281 @@
         <v>25</v>
       </c>
       <c r="B443">
+        <f>(1/0.0562)*0.103774876494967</f>
+        <v>1.8465280515118683</v>
+      </c>
+      <c r="C443" t="s">
+        <v>165</v>
+      </c>
+      <c r="D443" t="s">
+        <v>4</v>
+      </c>
+      <c r="E443" t="s">
+        <v>26</v>
+      </c>
+      <c r="F443" t="s">
+        <v>19</v>
+      </c>
+      <c r="G443" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>25</v>
+      </c>
+      <c r="B444">
         <f>(1/0.0562)*0.133972324705964</f>
         <v>2.3838491940562991</v>
       </c>
-      <c r="C443" t="s">
-        <v>165</v>
-      </c>
-      <c r="D443" t="s">
-        <v>4</v>
-      </c>
-      <c r="E443" t="s">
+      <c r="C444" t="s">
+        <v>165</v>
+      </c>
+      <c r="D444" t="s">
+        <v>4</v>
+      </c>
+      <c r="E444" t="s">
         <v>26</v>
       </c>
-      <c r="F443" t="s">
-        <v>19</v>
-      </c>
-      <c r="G443" t="s">
+      <c r="F444" t="s">
+        <v>19</v>
+      </c>
+      <c r="G444" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>3</v>
-      </c>
-      <c r="B446" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B447" t="s">
-        <v>226</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B448" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B449" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B450" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>6</v>
+      </c>
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>216</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B452" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
         <v>9</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B454" t="s">
         <v>10</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>11</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D454" t="s">
         <v>3</v>
       </c>
-      <c r="E453" t="s">
+      <c r="E454" t="s">
         <v>6</v>
       </c>
-      <c r="F453" t="s">
+      <c r="F454" t="s">
         <v>13</v>
       </c>
-      <c r="G453" t="s">
+      <c r="G454" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="455" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
         <v>204</v>
       </c>
-      <c r="B454">
+      <c r="B455">
         <v>1</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C455" t="s">
         <v>164</v>
       </c>
-      <c r="D454" t="s">
-        <v>4</v>
-      </c>
-      <c r="E454" t="s">
-        <v>7</v>
-      </c>
-      <c r="F454" t="s">
+      <c r="D455" t="s">
+        <v>4</v>
+      </c>
+      <c r="E455" t="s">
+        <v>7</v>
+      </c>
+      <c r="F455" t="s">
         <v>18</v>
       </c>
-      <c r="G454" t="s">
+      <c r="G455" t="s">
         <v>226</v>
       </c>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
-      <c r="K454"/>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="H455"/>
+      <c r="I455"/>
+      <c r="J455"/>
+      <c r="K455"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
         <v>169</v>
       </c>
-      <c r="B455">
+      <c r="B456">
         <f>(1/0.053177)*0.0085612534146254</f>
         <v>0.1609954193471877</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C456" t="s">
         <v>164</v>
       </c>
-      <c r="D455" t="s">
-        <v>4</v>
-      </c>
-      <c r="E455" t="s">
-        <v>7</v>
-      </c>
-      <c r="F455" t="s">
-        <v>19</v>
-      </c>
-      <c r="G455" t="s">
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+      <c r="E456" t="s">
+        <v>7</v>
+      </c>
+      <c r="F456" t="s">
+        <v>19</v>
+      </c>
+      <c r="G456" t="s">
         <v>168</v>
       </c>
-      <c r="H455" t="s">
+      <c r="H456" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
         <v>172</v>
       </c>
-      <c r="B456">
+      <c r="B457">
         <f>(1/0.053177)*0.0130181682473286</f>
         <v>0.24480824881675539</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C457" t="s">
         <v>164</v>
       </c>
-      <c r="D456" t="s">
-        <v>4</v>
-      </c>
-      <c r="E456" t="s">
-        <v>7</v>
-      </c>
-      <c r="F456" t="s">
-        <v>19</v>
-      </c>
-      <c r="G456" t="s">
+      <c r="D457" t="s">
+        <v>4</v>
+      </c>
+      <c r="E457" t="s">
+        <v>7</v>
+      </c>
+      <c r="F457" t="s">
+        <v>19</v>
+      </c>
+      <c r="G457" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
         <v>188</v>
       </c>
-      <c r="B457">
+      <c r="B458">
         <f>(1/0.053177)*0.0216120622410464</f>
         <v>0.40641747825274838</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C458" t="s">
         <v>164</v>
       </c>
-      <c r="D457" t="s">
-        <v>4</v>
-      </c>
-      <c r="E457" t="s">
-        <v>7</v>
-      </c>
-      <c r="F457" t="s">
-        <v>19</v>
-      </c>
-      <c r="G457" t="s">
+      <c r="D458" t="s">
+        <v>4</v>
+      </c>
+      <c r="E458" t="s">
+        <v>7</v>
+      </c>
+      <c r="F458" t="s">
+        <v>19</v>
+      </c>
+      <c r="G458" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>201</v>
       </c>
-      <c r="B458">
+      <c r="B459">
         <f>(1/0.053177)*0.00934397682507009</f>
         <v>0.17571462897625084</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C459" t="s">
         <v>164</v>
       </c>
-      <c r="D458" t="s">
-        <v>4</v>
-      </c>
-      <c r="E458" t="s">
-        <v>7</v>
-      </c>
-      <c r="F458" t="s">
-        <v>19</v>
-      </c>
-      <c r="G458" t="s">
+      <c r="D459" t="s">
+        <v>4</v>
+      </c>
+      <c r="E459" t="s">
+        <v>7</v>
+      </c>
+      <c r="F459" t="s">
+        <v>19</v>
+      </c>
+      <c r="G459" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>86</v>
       </c>
-      <c r="B459">
+      <c r="B460">
         <f>(1/0.053177)*0.000642010008010976</f>
         <v>1.2073076856742127E-2</v>
       </c>
-      <c r="C459" t="s">
-        <v>165</v>
-      </c>
-      <c r="D459" t="s">
+      <c r="C460" t="s">
+        <v>165</v>
+      </c>
+      <c r="D460" t="s">
         <v>21</v>
       </c>
-      <c r="E459" t="s">
-        <v>7</v>
-      </c>
-      <c r="F459" t="s">
-        <v>19</v>
-      </c>
-      <c r="G459" t="s">
+      <c r="E460" t="s">
+        <v>7</v>
+      </c>
+      <c r="F460" t="s">
+        <v>19</v>
+      </c>
+      <c r="G460" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>25</v>
-      </c>
-      <c r="B460">
-        <f>(1/0.053177)*0.104800563836034</f>
-        <v>1.9707874426168082</v>
-      </c>
-      <c r="C460" t="s">
-        <v>165</v>
-      </c>
-      <c r="D460" t="s">
-        <v>4</v>
-      </c>
-      <c r="E460" t="s">
-        <v>26</v>
-      </c>
-      <c r="F460" t="s">
-        <v>19</v>
-      </c>
-      <c r="G460" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
@@ -8558,302 +8581,299 @@
         <v>25</v>
       </c>
       <c r="B461">
+        <f>(1/0.053177)*0.104800563836034</f>
+        <v>1.9707874426168082</v>
+      </c>
+      <c r="C461" t="s">
+        <v>165</v>
+      </c>
+      <c r="D461" t="s">
+        <v>4</v>
+      </c>
+      <c r="E461" t="s">
+        <v>26</v>
+      </c>
+      <c r="F461" t="s">
+        <v>19</v>
+      </c>
+      <c r="G461" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>25</v>
+      </c>
+      <c r="B462">
         <f>(1/0.053177)*0.125938218719691</f>
         <v>2.3682836323916541</v>
       </c>
-      <c r="C461" t="s">
-        <v>165</v>
-      </c>
-      <c r="D461" t="s">
-        <v>4</v>
-      </c>
-      <c r="E461" t="s">
+      <c r="C462" t="s">
+        <v>165</v>
+      </c>
+      <c r="D462" t="s">
+        <v>4</v>
+      </c>
+      <c r="E462" t="s">
         <v>26</v>
       </c>
-      <c r="F461" t="s">
-        <v>19</v>
-      </c>
-      <c r="G461" t="s">
+      <c r="F462" t="s">
+        <v>19</v>
+      </c>
+      <c r="G462" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B464" s="1" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>3</v>
-      </c>
-      <c r="B464" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B465" t="s">
-        <v>226</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B466" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B467" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B468" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>6</v>
+      </c>
+      <c r="B469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
         <v>216</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B470" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B470" s="1"/>
-      <c r="C470" s="1"/>
-      <c r="D470" s="1"/>
-      <c r="E470" s="1"/>
-      <c r="F470" s="1"/>
-      <c r="G470" s="1"/>
-      <c r="H470" s="1"/>
-      <c r="I470" s="1"/>
-      <c r="J470" s="1"/>
-      <c r="K470" s="1"/>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>9</v>
-      </c>
-      <c r="B471" t="s">
-        <v>10</v>
-      </c>
-      <c r="C471" t="s">
-        <v>11</v>
-      </c>
-      <c r="D471" t="s">
-        <v>3</v>
-      </c>
-      <c r="E471" t="s">
-        <v>6</v>
-      </c>
-      <c r="F471" t="s">
-        <v>13</v>
-      </c>
-      <c r="G471" t="s">
-        <v>5</v>
-      </c>
-      <c r="H471" t="s">
-        <v>2</v>
-      </c>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+      <c r="H471" s="1"/>
+      <c r="I471" s="1"/>
+      <c r="J471" s="1"/>
+      <c r="K471" s="1"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>205</v>
-      </c>
-      <c r="B472">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B472" t="s">
+        <v>10</v>
       </c>
       <c r="C472" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="D472" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E472" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F472" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G472" t="s">
-        <v>226</v>
+        <v>5</v>
+      </c>
+      <c r="H472" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>205</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473" t="s">
+        <v>164</v>
+      </c>
+      <c r="D473" t="s">
+        <v>4</v>
+      </c>
+      <c r="E473" t="s">
+        <v>7</v>
+      </c>
+      <c r="F473" t="s">
+        <v>18</v>
+      </c>
+      <c r="G473" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>169</v>
       </c>
-      <c r="B473">
+      <c r="B474">
         <f>(1/0.045)*0.0085612534146254</f>
         <v>0.19025007588056442</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C474" t="s">
         <v>164</v>
       </c>
-      <c r="D473" t="s">
-        <v>4</v>
-      </c>
-      <c r="E473" t="s">
-        <v>7</v>
-      </c>
-      <c r="F473" t="s">
-        <v>19</v>
-      </c>
-      <c r="G473" t="s">
+      <c r="D474" t="s">
+        <v>4</v>
+      </c>
+      <c r="E474" t="s">
+        <v>7</v>
+      </c>
+      <c r="F474" t="s">
+        <v>19</v>
+      </c>
+      <c r="G474" t="s">
         <v>168</v>
       </c>
-      <c r="H473" t="s">
+      <c r="H474" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>192</v>
       </c>
-      <c r="B474">
+      <c r="B475">
         <f>(1/0.045)*0.0109585812086088</f>
         <v>0.24352402685797334</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C475" t="s">
         <v>164</v>
       </c>
-      <c r="D474" t="s">
-        <v>4</v>
-      </c>
-      <c r="E474" t="s">
-        <v>7</v>
-      </c>
-      <c r="F474" t="s">
-        <v>19</v>
-      </c>
-      <c r="G474" t="s">
+      <c r="D475" t="s">
+        <v>4</v>
+      </c>
+      <c r="E475" t="s">
+        <v>7</v>
+      </c>
+      <c r="F475" t="s">
+        <v>19</v>
+      </c>
+      <c r="G475" t="s">
         <v>193</v>
       </c>
-      <c r="H474" t="s">
+      <c r="H475" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
         <v>195</v>
       </c>
-      <c r="B475">
+      <c r="B476">
         <f>(1/0.045)*0.0154881832669088</f>
         <v>0.34418185037575111</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C476" t="s">
         <v>164</v>
       </c>
-      <c r="D475" t="s">
-        <v>4</v>
-      </c>
-      <c r="E475" t="s">
-        <v>7</v>
-      </c>
-      <c r="F475" t="s">
-        <v>19</v>
-      </c>
-      <c r="G475" t="s">
+      <c r="D476" t="s">
+        <v>4</v>
+      </c>
+      <c r="E476" t="s">
+        <v>7</v>
+      </c>
+      <c r="F476" t="s">
+        <v>19</v>
+      </c>
+      <c r="G476" t="s">
         <v>196</v>
       </c>
-      <c r="H475" t="s">
+      <c r="H476" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>201</v>
       </c>
-      <c r="B476">
+      <c r="B477">
         <f>(1/0.045)*0.00937223587605556</f>
         <v>0.20827190835679019</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C477" t="s">
         <v>164</v>
       </c>
-      <c r="D476" t="s">
-        <v>4</v>
-      </c>
-      <c r="E476" t="s">
-        <v>7</v>
-      </c>
-      <c r="F476" t="s">
-        <v>19</v>
-      </c>
-      <c r="G476" t="s">
+      <c r="D477" t="s">
+        <v>4</v>
+      </c>
+      <c r="E477" t="s">
+        <v>7</v>
+      </c>
+      <c r="F477" t="s">
+        <v>19</v>
+      </c>
+      <c r="G477" t="s">
         <v>202</v>
       </c>
-      <c r="H476" t="s">
+      <c r="H477" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
         <v>86</v>
       </c>
-      <c r="B477">
+      <c r="B478">
         <f>(1/0.045)*0.000592324289244388</f>
         <v>1.3162761983208621E-2</v>
       </c>
-      <c r="C477" t="s">
-        <v>165</v>
-      </c>
-      <c r="D477" t="s">
+      <c r="C478" t="s">
+        <v>165</v>
+      </c>
+      <c r="D478" t="s">
         <v>21</v>
       </c>
-      <c r="E477" t="s">
-        <v>7</v>
-      </c>
-      <c r="F477" t="s">
-        <v>19</v>
-      </c>
-      <c r="G477" t="s">
+      <c r="E478" t="s">
+        <v>7</v>
+      </c>
+      <c r="F478" t="s">
+        <v>19</v>
+      </c>
+      <c r="G478" t="s">
         <v>163</v>
-      </c>
-      <c r="H477" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>25</v>
-      </c>
-      <c r="B478">
-        <f>(1/0.045)*0.105117512875205</f>
-        <v>2.3359447305601111</v>
-      </c>
-      <c r="C478" t="s">
-        <v>165</v>
-      </c>
-      <c r="D478" t="s">
-        <v>4</v>
-      </c>
-      <c r="E478" t="s">
-        <v>26</v>
-      </c>
-      <c r="F478" t="s">
-        <v>19</v>
-      </c>
-      <c r="G478" t="s">
-        <v>62</v>
       </c>
       <c r="H478" t="s">
         <v>217</v>
@@ -8864,428 +8884,433 @@
         <v>25</v>
       </c>
       <c r="B479">
+        <f>(1/0.045)*0.105117512875205</f>
+        <v>2.3359447305601111</v>
+      </c>
+      <c r="C479" t="s">
+        <v>165</v>
+      </c>
+      <c r="D479" t="s">
+        <v>4</v>
+      </c>
+      <c r="E479" t="s">
+        <v>26</v>
+      </c>
+      <c r="F479" t="s">
+        <v>19</v>
+      </c>
+      <c r="G479" t="s">
+        <v>62</v>
+      </c>
+      <c r="H479" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>25</v>
+      </c>
+      <c r="B480">
         <f>(1/0.045)*0.0936148404555879</f>
         <v>2.0803297879019533</v>
       </c>
-      <c r="C479" t="s">
-        <v>165</v>
-      </c>
-      <c r="D479" t="s">
-        <v>4</v>
-      </c>
-      <c r="E479" t="s">
+      <c r="C480" t="s">
+        <v>165</v>
+      </c>
+      <c r="D480" t="s">
+        <v>4</v>
+      </c>
+      <c r="E480" t="s">
         <v>26</v>
       </c>
-      <c r="F479" t="s">
-        <v>19</v>
-      </c>
-      <c r="G479" t="s">
+      <c r="F480" t="s">
+        <v>19</v>
+      </c>
+      <c r="G480" t="s">
         <v>62</v>
       </c>
-      <c r="H479" t="s">
+      <c r="H480" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
+    <row r="482" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B482" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A482" s="3" t="s">
+    <row r="483" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B483" s="3" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>3</v>
-      </c>
-      <c r="B483" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>230</v>
-      </c>
-      <c r="B484">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B484" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>5</v>
-      </c>
-      <c r="B485" t="s">
-        <v>254</v>
+        <v>230</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B486" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>6</v>
+      </c>
+      <c r="B487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
         <v>216</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B488" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>9</v>
-      </c>
-      <c r="B489" t="s">
-        <v>10</v>
-      </c>
-      <c r="C489" t="s">
-        <v>6</v>
-      </c>
-      <c r="D489" t="s">
-        <v>12</v>
-      </c>
-      <c r="E489" t="s">
-        <v>3</v>
-      </c>
-      <c r="F489" t="s">
-        <v>13</v>
-      </c>
-      <c r="G489" t="s">
-        <v>5</v>
-      </c>
-      <c r="H489" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>238</v>
-      </c>
-      <c r="B490">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B490" t="s">
+        <v>10</v>
       </c>
       <c r="C490" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D490" t="s">
+        <v>12</v>
       </c>
       <c r="E490" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F490" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G490" t="s">
-        <v>254</v>
+        <v>5</v>
+      </c>
+      <c r="H490" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>238</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" t="s">
+        <v>21</v>
+      </c>
+      <c r="F491" t="s">
+        <v>18</v>
+      </c>
+      <c r="G491" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>203</v>
       </c>
-      <c r="B491" s="4">
+      <c r="B492" s="4">
         <f>408*0.046/24.971</f>
         <v>0.75159184654198874</v>
       </c>
-      <c r="C491" t="s">
-        <v>7</v>
-      </c>
-      <c r="E491" t="s">
-        <v>4</v>
-      </c>
-      <c r="F491" t="s">
-        <v>19</v>
-      </c>
-      <c r="G491" t="s">
+      <c r="C492" t="s">
+        <v>7</v>
+      </c>
+      <c r="E492" t="s">
+        <v>4</v>
+      </c>
+      <c r="F492" t="s">
+        <v>19</v>
+      </c>
+      <c r="G492" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
         <v>239</v>
       </c>
-      <c r="B492" s="4">
+      <c r="B493" s="4">
         <f>0.275/24.971</f>
         <v>1.1012774818789798E-2</v>
       </c>
-      <c r="C492" t="s">
-        <v>7</v>
-      </c>
-      <c r="E492" t="s">
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" t="s">
         <v>21</v>
       </c>
-      <c r="F492" t="s">
-        <v>19</v>
-      </c>
-      <c r="G492" t="s">
+      <c r="F493" t="s">
+        <v>19</v>
+      </c>
+      <c r="G493" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>241</v>
       </c>
-      <c r="B493" s="4">
+      <c r="B494" s="4">
         <f>0.593/24.971</f>
         <v>2.3747547154699448E-2</v>
       </c>
-      <c r="C493" t="s">
-        <v>7</v>
-      </c>
-      <c r="E493" t="s">
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+      <c r="E494" t="s">
         <v>21</v>
       </c>
-      <c r="F493" t="s">
-        <v>19</v>
-      </c>
-      <c r="G493" t="s">
+      <c r="F494" t="s">
+        <v>19</v>
+      </c>
+      <c r="G494" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="3" t="s">
+    <row r="495" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B494" s="5">
+      <c r="B495" s="5">
         <f>0.085/24.971</f>
         <v>3.4039485803532099E-3</v>
       </c>
-      <c r="C494" t="s">
-        <v>7</v>
-      </c>
-      <c r="E494" t="s">
+      <c r="C495" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" t="s">
         <v>21</v>
       </c>
-      <c r="F494" t="s">
-        <v>19</v>
-      </c>
-      <c r="G494" t="s">
+      <c r="F495" t="s">
+        <v>19</v>
+      </c>
+      <c r="G495" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>245</v>
       </c>
-      <c r="B495" s="6">
+      <c r="B496" s="6">
         <f>2.75/24.971</f>
         <v>0.11012774818789796</v>
       </c>
-      <c r="C495" t="s">
-        <v>7</v>
-      </c>
-      <c r="E495" t="s">
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" t="s">
         <v>21</v>
       </c>
-      <c r="F495" t="s">
-        <v>19</v>
-      </c>
-      <c r="G495" t="s">
+      <c r="F496" t="s">
+        <v>19</v>
+      </c>
+      <c r="G496" t="s">
         <v>246</v>
       </c>
-      <c r="I495" s="7"/>
-      <c r="J495" s="8"/>
-      <c r="K495" s="8"/>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="I496" s="7"/>
+      <c r="J496" s="8"/>
+      <c r="K496" s="8"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>247</v>
       </c>
-      <c r="B496" s="6">
+      <c r="B497" s="6">
         <f>2.5/24.971</f>
         <v>0.10011613471627087</v>
       </c>
-      <c r="C496" t="s">
-        <v>7</v>
-      </c>
-      <c r="E496" t="s">
+      <c r="C497" t="s">
+        <v>7</v>
+      </c>
+      <c r="E497" t="s">
         <v>21</v>
       </c>
-      <c r="F496" t="s">
-        <v>19</v>
-      </c>
-      <c r="G496" t="s">
+      <c r="F497" t="s">
+        <v>19</v>
+      </c>
+      <c r="G497" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>248</v>
       </c>
-      <c r="B497" s="6">
+      <c r="B498" s="6">
         <f>2.75/24.971</f>
         <v>0.11012774818789796</v>
       </c>
-      <c r="C497" t="s">
-        <v>7</v>
-      </c>
-      <c r="E497" t="s">
+      <c r="C498" t="s">
+        <v>7</v>
+      </c>
+      <c r="E498" t="s">
         <v>21</v>
       </c>
-      <c r="F497" t="s">
-        <v>19</v>
-      </c>
-      <c r="G497" t="s">
+      <c r="F498" t="s">
+        <v>19</v>
+      </c>
+      <c r="G498" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>250</v>
       </c>
-      <c r="B498" s="9">
+      <c r="B499" s="9">
         <f>2.5/24.971</f>
         <v>0.10011613471627087</v>
       </c>
-      <c r="C498" t="s">
-        <v>7</v>
-      </c>
-      <c r="E498" t="s">
+      <c r="C499" t="s">
+        <v>7</v>
+      </c>
+      <c r="E499" t="s">
         <v>21</v>
       </c>
-      <c r="F498" t="s">
-        <v>19</v>
-      </c>
-      <c r="G498" t="s">
+      <c r="F499" t="s">
+        <v>19</v>
+      </c>
+      <c r="G499" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B499" s="10"/>
-    </row>
-    <row r="500" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B500" s="10"/>
+    </row>
+    <row r="501" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B501" s="2" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>2</v>
-      </c>
-      <c r="B501" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B502" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>230</v>
-      </c>
-      <c r="B503">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B503" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>5</v>
-      </c>
-      <c r="B504" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B505" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>6</v>
+      </c>
+      <c r="B506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>216</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B507" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B507" s="1"/>
-      <c r="C507" s="1"/>
-      <c r="D507" s="1"/>
-      <c r="E507" s="1"/>
-      <c r="F507" s="1"/>
-      <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
+      <c r="E508" s="1"/>
+      <c r="F508" s="1"/>
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C508" s="1" t="s">
+      <c r="C509" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D508" s="1" t="s">
+      <c r="D509" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E508" s="1" t="s">
+      <c r="E509" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F508" s="1" t="s">
+      <c r="F509" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G508" s="1" t="s">
+      <c r="G509" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H508" s="1" t="s">
+      <c r="H509" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A509" s="3" t="str">
-        <f>B500</f>
+    <row r="510" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="str">
+        <f>B501</f>
         <v>market for battery, Sodium-ion, SiB</v>
-      </c>
-      <c r="B509">
-        <v>1</v>
-      </c>
-      <c r="C509" t="s">
-        <v>7</v>
-      </c>
-      <c r="E509" t="str">
-        <f>B502</f>
-        <v>GLO</v>
-      </c>
-      <c r="F509" t="s">
-        <v>18</v>
-      </c>
-      <c r="G509" t="str">
-        <f>B504</f>
-        <v>battery, SiB</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A510" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -9293,25 +9318,27 @@
       <c r="C510" t="s">
         <v>7</v>
       </c>
-      <c r="E510" t="s">
-        <v>21</v>
+      <c r="E510" t="str">
+        <f>B503</f>
+        <v>GLO</v>
       </c>
       <c r="F510" t="s">
-        <v>19</v>
-      </c>
-      <c r="G510" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="G510" t="str">
+        <f>B505</f>
+        <v>battery, SiB</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B511">
-        <v>0.30910727700000001</v>
+        <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E511" t="s">
         <v>21</v>
@@ -9320,15 +9347,15 @@
         <v>19</v>
       </c>
       <c r="G511" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="B512">
-        <v>2.4627409999999999E-2</v>
+        <v>0.30910727700000001</v>
       </c>
       <c r="C512" t="s">
         <v>24</v>
@@ -9340,15 +9367,15 @@
         <v>19</v>
       </c>
       <c r="G512" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B513">
-        <v>0.20877976500000001</v>
+        <v>2.4627409999999999E-2</v>
       </c>
       <c r="C513" t="s">
         <v>24</v>
@@ -9360,15 +9387,15 @@
         <v>19</v>
       </c>
       <c r="G513" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B514">
-        <v>0.59901584900000004</v>
+        <v>0.20877976500000001</v>
       </c>
       <c r="C514" t="s">
         <v>24</v>
@@ -9380,14 +9407,34 @@
         <v>19</v>
       </c>
       <c r="G514" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>234</v>
+      </c>
+      <c r="B515">
+        <v>0.59901584900000004</v>
+      </c>
+      <c r="C515" t="s">
+        <v>24</v>
+      </c>
+      <c r="E515" t="s">
+        <v>21</v>
+      </c>
+      <c r="F515" t="s">
+        <v>19</v>
+      </c>
+      <c r="G515" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A515" s="3"/>
+    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A516" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K479" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K480" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
